--- a/PythonResources/Data/Consumption/Sympheny/futu_1058x1060_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1058x1060_hea.xlsx
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2031.629984918565</v>
+        <v>2031.629984918564</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1963.78697017885</v>
+        <v>1963.786970178849</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>1923.627445751086</v>
+        <v>1923.627445751085</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>1873.526951691929</v>
+        <v>1873.526951691928</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>2016.056189924101</v>
+        <v>2016.0561899241</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>1973.188689099106</v>
+        <v>1973.188689099105</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>1982.566962336269</v>
+        <v>1982.566962336268</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>2021.858996489596</v>
+        <v>2021.858996489595</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>1987.566754255832</v>
+        <v>1987.566754255831</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>2016.237893968071</v>
+        <v>2016.23789396807</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>1992.42294136645</v>
+        <v>1992.422941366449</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>2058.788878071312</v>
+        <v>2058.788878071311</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>2011.680639316887</v>
+        <v>2011.680639316886</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>2056.32415063617</v>
+        <v>2056.324150636169</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>2002.718526954623</v>
+        <v>2002.718526954622</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>1981.916344630441</v>
+        <v>1981.91634463044</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>1963.514414112895</v>
+        <v>1963.514414112894</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>1998.017667494495</v>
+        <v>1998.017667494494</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>2005.042580291208</v>
+        <v>2005.042580291207</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>1813.898718165892</v>
+        <v>1813.898718165891</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>1160.496837470422</v>
+        <v>1160.496837470421</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>1234.951534842337</v>
+        <v>1234.951534842336</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>876.8363098604924</v>
+        <v>876.8363098604923</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>1996.080467928944</v>
+        <v>1996.080467928943</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>2067.636692728498</v>
+        <v>2067.636692728497</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>2046.632291387639</v>
+        <v>2046.632291387638</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>2040.469007444591</v>
+        <v>2040.46900744459</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>493</v>
       </c>
       <c r="B493">
-        <v>1991.675610217864</v>
+        <v>1991.675610217863</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>522</v>
       </c>
       <c r="B522">
-        <v>1933.802872213408</v>
+        <v>1933.802872213407</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>1998.943771976665</v>
+        <v>1998.943771976664</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>1994.357210221615</v>
+        <v>1994.357210221614</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>938.3548515858954</v>
+        <v>938.3548515858952</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>1406.477221639663</v>
+        <v>1406.477221639662</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>814.039978406526</v>
+        <v>814.0399784065258</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>737.4575852939298</v>
+        <v>737.4575852939297</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>631.0786596806347</v>
+        <v>631.0786596806346</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>629.7393250339524</v>
+        <v>629.7393250339522</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>627</v>
       </c>
       <c r="B627">
-        <v>2013.852295713368</v>
+        <v>2013.852295713367</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>631</v>
       </c>
       <c r="B631">
-        <v>2082.9613773401</v>
+        <v>2082.961377340099</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>1985.600247586414</v>
+        <v>1985.600247586413</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>2050.544789753768</v>
+        <v>2050.544789753767</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>1983.402214796454</v>
+        <v>1983.402214796453</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>683</v>
       </c>
       <c r="B683">
-        <v>1983.551681026171</v>
+        <v>1983.55168102617</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>714</v>
       </c>
       <c r="B714">
-        <v>704.2057452474136</v>
+        <v>704.2057452474135</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>1202.054310752601</v>
+        <v>1202.0543107526</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>732</v>
       </c>
       <c r="B732">
-        <v>1047.734824635083</v>
+        <v>1047.734824635082</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>686.612690796573</v>
+        <v>686.6126907965729</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>741</v>
       </c>
       <c r="B741">
-        <v>852.8894752914739</v>
+        <v>852.8894752914738</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>747</v>
       </c>
       <c r="B747">
-        <v>1931.458303904117</v>
+        <v>1931.458303904116</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>757</v>
       </c>
       <c r="B757">
-        <v>1209.348848904882</v>
+        <v>1209.348848904881</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>922.027864022072</v>
+        <v>922.0278640220718</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>1964.674975425994</v>
+        <v>1964.674975425993</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>799</v>
       </c>
       <c r="B799">
-        <v>2052.449751505067</v>
+        <v>2052.449751505066</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>823</v>
       </c>
       <c r="B823">
-        <v>2055.966603969003</v>
+        <v>2055.966603969002</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>1977.684398832171</v>
+        <v>1977.68439883217</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>856</v>
       </c>
       <c r="B856">
-        <v>719.1201304048894</v>
+        <v>719.1201304048893</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>722.5285465845209</v>
+        <v>722.5285465845208</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>796.7575792566664</v>
+        <v>796.7575792566663</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>882</v>
       </c>
       <c r="B882">
-        <v>682.3719528671434</v>
+        <v>682.3719528671432</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>1104.948152802551</v>
+        <v>1104.94815280255</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>1450.388055362292</v>
+        <v>1450.388055362291</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>1917.461231097651</v>
+        <v>1917.46123109765</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7703,7 +7703,7 @@
         <v>920</v>
       </c>
       <c r="B920">
-        <v>2014.001761943085</v>
+        <v>2014.001761943084</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>1887.869848324015</v>
+        <v>1887.869848324014</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>961</v>
       </c>
       <c r="B961">
-        <v>2000.491187060797</v>
+        <v>2000.491187060796</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>984</v>
       </c>
       <c r="B984">
-        <v>2035.140975961728</v>
+        <v>2035.140975961727</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>2076.953421047542</v>
+        <v>2076.953421047541</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>1020</v>
       </c>
       <c r="B1020">
-        <v>1982.273891297608</v>
+        <v>1982.273891297607</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>1926.423343459915</v>
+        <v>1926.423343459914</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8671,7 +8671,7 @@
         <v>1041</v>
       </c>
       <c r="B1041">
-        <v>1957.890380880984</v>
+        <v>1957.890380880983</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>1047</v>
       </c>
       <c r="B1047">
-        <v>893.8344301028504</v>
+        <v>893.8344301028503</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>1049</v>
       </c>
       <c r="B1049">
-        <v>839.5957729777953</v>
+        <v>839.5957729777951</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>1050</v>
       </c>
       <c r="B1050">
-        <v>861.8779640472173</v>
+        <v>861.8779640472172</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>1139.422099080285</v>
+        <v>1139.422099080284</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>1074</v>
       </c>
       <c r="B1074">
-        <v>591.3235732862232</v>
+        <v>591.3235732862231</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>923.0829197612528</v>
+        <v>923.0829197612526</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>759.8745890411361</v>
+        <v>759.874589041136</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9199,7 +9199,7 @@
         <v>1107</v>
       </c>
       <c r="B1107">
-        <v>1900.404496647561</v>
+        <v>1900.40449664756</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>1976.403678393221</v>
+        <v>1976.40367839322</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>1976.81983926812</v>
+        <v>1976.819839268119</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>1112</v>
       </c>
       <c r="B1112">
-        <v>1974.082555767023</v>
+        <v>1974.082555767022</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>1139</v>
       </c>
       <c r="B1139">
-        <v>1442.738901253231</v>
+        <v>1442.73890125323</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>1145</v>
       </c>
       <c r="B1145">
-        <v>969.8951567666294</v>
+        <v>969.8951567666292</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>1269.12361795025</v>
+        <v>1269.123617950249</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9679,7 +9679,7 @@
         <v>1167</v>
       </c>
       <c r="B1167">
-        <v>711.693710285211</v>
+        <v>711.6937102852108</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9719,7 +9719,7 @@
         <v>1172</v>
       </c>
       <c r="B1172">
-        <v>819.5760903268388</v>
+        <v>819.5760903268387</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>896.4984458442821</v>
+        <v>896.4984458442819</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>1179</v>
       </c>
       <c r="B1179">
-        <v>1472.359591130733</v>
+        <v>1472.359591130732</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9783,7 +9783,7 @@
         <v>1180</v>
       </c>
       <c r="B1180">
-        <v>1926.690038105097</v>
+        <v>1926.690038105096</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -9959,7 +9959,7 @@
         <v>1202</v>
       </c>
       <c r="B1202">
-        <v>1923.475048810982</v>
+        <v>1923.475048810981</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -10015,7 +10015,7 @@
         <v>1209</v>
       </c>
       <c r="B1209">
-        <v>1969.800787892181</v>
+        <v>1969.80078789218</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>1213</v>
       </c>
       <c r="B1213">
-        <v>916.9489429220708</v>
+        <v>916.9489429220706</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10055,7 +10055,7 @@
         <v>1214</v>
       </c>
       <c r="B1214">
-        <v>824.4146931751376</v>
+        <v>824.4146931751375</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>669.2570238870481</v>
+        <v>669.257023887048</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10103,7 +10103,7 @@
         <v>1220</v>
       </c>
       <c r="B1220">
-        <v>727.6338440780015</v>
+        <v>727.6338440780014</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -10295,7 +10295,7 @@
         <v>1244</v>
       </c>
       <c r="B1244">
-        <v>1189.165046472275</v>
+        <v>1189.165046472274</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>1259</v>
       </c>
       <c r="B1259">
-        <v>1968.786762098413</v>
+        <v>1968.786762098412</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10615,7 +10615,7 @@
         <v>1284</v>
       </c>
       <c r="B1284">
-        <v>1341.342183297179</v>
+        <v>1341.342183297178</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>1287</v>
       </c>
       <c r="B1287">
-        <v>968.6437434315454</v>
+        <v>968.6437434315452</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>1022.882400556601</v>
+        <v>1022.8824005566</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>1300</v>
       </c>
       <c r="B1300">
-        <v>1970.929111391027</v>
+        <v>1970.929111391026</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>1971.286658058194</v>
+        <v>1971.286658058193</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10847,7 +10847,7 @@
         <v>1313</v>
       </c>
       <c r="B1313">
-        <v>839.446306748078</v>
+        <v>839.4463067480779</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
@@ -10855,7 +10855,7 @@
         <v>1314</v>
       </c>
       <c r="B1314">
-        <v>875.7050556512596</v>
+        <v>875.7050556512595</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
@@ -10943,7 +10943,7 @@
         <v>1325</v>
       </c>
       <c r="B1325">
-        <v>1966.615105701932</v>
+        <v>1966.615105701931</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>750.4963158039731</v>
+        <v>750.4963158039729</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>1366</v>
       </c>
       <c r="B1366">
-        <v>721.2800639598236</v>
+        <v>721.2800639598235</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -11407,7 +11407,7 @@
         <v>1383</v>
       </c>
       <c r="B1383">
-        <v>543.2013087380303</v>
+        <v>543.2013087380302</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -11423,7 +11423,7 @@
         <v>1385</v>
       </c>
       <c r="B1385">
-        <v>515.2921537263104</v>
+        <v>515.2921537263103</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -11631,7 +11631,7 @@
         <v>1411</v>
       </c>
       <c r="B1411">
-        <v>619.2766889537423</v>
+        <v>619.2766889537422</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
@@ -11663,7 +11663,7 @@
         <v>1415</v>
       </c>
       <c r="B1415">
-        <v>891.305227039203</v>
+        <v>891.3052270392029</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
@@ -11735,7 +11735,7 @@
         <v>1424</v>
       </c>
       <c r="B1424">
-        <v>2098.089704355798</v>
+        <v>2098.089704355797</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1453</v>
       </c>
       <c r="B1453">
-        <v>1965.744684717108</v>
+        <v>1965.744684717107</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -12231,7 +12231,7 @@
         <v>1486</v>
       </c>
       <c r="B1486">
-        <v>1976.81983926812</v>
+        <v>1976.819839268119</v>
       </c>
     </row>
     <row r="1487" spans="1:2">
@@ -12367,7 +12367,7 @@
         <v>1503</v>
       </c>
       <c r="B1503">
-        <v>1528.412357985102</v>
+        <v>1528.412357985101</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
@@ -12383,7 +12383,7 @@
         <v>1505</v>
       </c>
       <c r="B1505">
-        <v>1315.000958342297</v>
+        <v>1315.000958342296</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
@@ -12559,7 +12559,7 @@
         <v>1527</v>
       </c>
       <c r="B1527">
-        <v>698.1479668782836</v>
+        <v>698.1479668782835</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
@@ -12575,7 +12575,7 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>684.3208752742413</v>
+        <v>684.3208752742412</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>974.2414002699772</v>
+        <v>974.241400269977</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12783,7 +12783,7 @@
         <v>1555</v>
       </c>
       <c r="B1555">
-        <v>952.5687969609706</v>
+        <v>952.5687969609704</v>
       </c>
     </row>
     <row r="1556" spans="1:2">
@@ -12903,7 +12903,7 @@
         <v>1570</v>
       </c>
       <c r="B1570">
-        <v>1810.502024827807</v>
+        <v>1810.502024827806</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>1063.33206531264</v>
+        <v>1063.332065312639</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -12959,7 +12959,7 @@
         <v>1577</v>
       </c>
       <c r="B1577">
-        <v>801.8042625424148</v>
+        <v>801.8042625424147</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
@@ -13223,7 +13223,7 @@
         <v>1610</v>
       </c>
       <c r="B1610">
-        <v>1464.648892103553</v>
+        <v>1464.648892103552</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>1874.628898797296</v>
+        <v>1874.628898797295</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13311,7 +13311,7 @@
         <v>1621</v>
       </c>
       <c r="B1621">
-        <v>848.423072662275</v>
+        <v>848.4230726622749</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>686.2404905774731</v>
+        <v>686.240490577473</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13439,7 +13439,7 @@
         <v>1637</v>
       </c>
       <c r="B1637">
-        <v>1501.830814778518</v>
+        <v>1501.830814778517</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
@@ -13759,7 +13759,7 @@
         <v>1677</v>
       </c>
       <c r="B1677">
-        <v>898.9983418040633</v>
+        <v>898.9983418040632</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>1225.543954501308</v>
+        <v>1225.543954501307</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13863,7 +13863,7 @@
         <v>1690</v>
       </c>
       <c r="B1690">
-        <v>963.3450190525484</v>
+        <v>963.3450190525482</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>850.2225288396556</v>
+        <v>850.2225288396555</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13935,7 +13935,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>651.6200087804084</v>
+        <v>651.6200087804083</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -13975,7 +13975,7 @@
         <v>1704</v>
       </c>
       <c r="B1704">
-        <v>844.6424562635436</v>
+        <v>844.6424562635435</v>
       </c>
     </row>
     <row r="1705" spans="1:2">
@@ -14015,7 +14015,7 @@
         <v>1709</v>
       </c>
       <c r="B1709">
-        <v>984.1384092455708</v>
+        <v>984.1384092455706</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -14063,7 +14063,7 @@
         <v>1715</v>
       </c>
       <c r="B1715">
-        <v>743.7849890186283</v>
+        <v>743.7849890186282</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>651.9629018956422</v>
+        <v>651.9629018956421</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14127,7 +14127,7 @@
         <v>1723</v>
       </c>
       <c r="B1723">
-        <v>637.1979829678836</v>
+        <v>637.1979829678835</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14143,7 +14143,7 @@
         <v>1725</v>
       </c>
       <c r="B1725">
-        <v>704.0123183618971</v>
+        <v>704.012318361897</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
@@ -14247,7 +14247,7 @@
         <v>1738</v>
       </c>
       <c r="B1738">
-        <v>681.343273521442</v>
+        <v>681.3432735214419</v>
       </c>
     </row>
     <row r="1739" spans="1:2">
@@ -14263,7 +14263,7 @@
         <v>1740</v>
       </c>
       <c r="B1740">
-        <v>592.05332017249</v>
+        <v>592.0533201724899</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14287,7 +14287,7 @@
         <v>1743</v>
       </c>
       <c r="B1743">
-        <v>446.1215271814597</v>
+        <v>446.1215271814596</v>
       </c>
     </row>
     <row r="1744" spans="1:2">
@@ -14335,7 +14335,7 @@
         <v>1749</v>
       </c>
       <c r="B1749">
-        <v>658.9585075884885</v>
+        <v>658.9585075884884</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14351,7 +14351,7 @@
         <v>1751</v>
       </c>
       <c r="B1751">
-        <v>822.4042258499207</v>
+        <v>822.4042258499206</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
@@ -14503,7 +14503,7 @@
         <v>1770</v>
       </c>
       <c r="B1770">
-        <v>528.8672042371039</v>
+        <v>528.8672042371038</v>
       </c>
     </row>
     <row r="1771" spans="1:2">
@@ -14527,7 +14527,7 @@
         <v>1773</v>
       </c>
       <c r="B1773">
-        <v>691.8234938639717</v>
+        <v>691.8234938639716</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
@@ -14615,7 +14615,7 @@
         <v>1784</v>
       </c>
       <c r="B1784">
-        <v>1329.018546121469</v>
+        <v>1329.018546121468</v>
       </c>
     </row>
     <row r="1785" spans="1:2">
@@ -14863,7 +14863,7 @@
         <v>1815</v>
       </c>
       <c r="B1815">
-        <v>852.7077712475038</v>
+        <v>852.7077712475037</v>
       </c>
     </row>
     <row r="1816" spans="1:2">
@@ -14871,7 +14871,7 @@
         <v>1816</v>
       </c>
       <c r="B1816">
-        <v>837.7054647784296</v>
+        <v>837.7054647784295</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
@@ -14975,7 +14975,7 @@
         <v>1829</v>
       </c>
       <c r="B1829">
-        <v>1986.198112505283</v>
+        <v>1986.198112505282</v>
       </c>
     </row>
     <row r="1830" spans="1:2">
@@ -15087,7 +15087,7 @@
         <v>1843</v>
       </c>
       <c r="B1843">
-        <v>823.6556391850047</v>
+        <v>823.6556391850046</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
@@ -15175,7 +15175,7 @@
         <v>1854</v>
       </c>
       <c r="B1854">
-        <v>1818.687498937618</v>
+        <v>1818.687498937617</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
@@ -15223,7 +15223,7 @@
         <v>1860</v>
       </c>
       <c r="B1860">
-        <v>870.6583723655112</v>
+        <v>870.6583723655111</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -15319,7 +15319,7 @@
         <v>1872</v>
       </c>
       <c r="B1872">
-        <v>811.0477231017936</v>
+        <v>811.0477231017935</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15431,7 +15431,7 @@
         <v>1886</v>
       </c>
       <c r="B1886">
-        <v>616.9702198794776</v>
+        <v>616.9702198794774</v>
       </c>
     </row>
     <row r="1887" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>502.9421401571213</v>
+        <v>502.9421401571212</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15463,7 +15463,7 @@
         <v>1890</v>
       </c>
       <c r="B1890">
-        <v>518.032367937794</v>
+        <v>518.0323679377939</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -15519,7 +15519,7 @@
         <v>1897</v>
       </c>
       <c r="B1897">
-        <v>883.102168667072</v>
+        <v>883.1021686670719</v>
       </c>
     </row>
     <row r="1898" spans="1:2">
@@ -15607,7 +15607,7 @@
         <v>1908</v>
       </c>
       <c r="B1908">
-        <v>929.5744432676016</v>
+        <v>929.5744432676014</v>
       </c>
     </row>
     <row r="1909" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>874.4389887642426</v>
+        <v>874.4389887642425</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>641.9164266903313</v>
+        <v>641.9164266903311</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>668.6181290227664</v>
+        <v>668.6181290227663</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>1861.768941620836</v>
+        <v>1861.768941620835</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -16151,7 +16151,7 @@
         <v>1976</v>
       </c>
       <c r="B1976">
-        <v>1961.937691924897</v>
+        <v>1961.937691924896</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16191,7 +16191,7 @@
         <v>1981</v>
       </c>
       <c r="B1981">
-        <v>894.1480161142181</v>
+        <v>894.148016114218</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>712.7810038386446</v>
+        <v>712.7810038386444</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16279,7 +16279,7 @@
         <v>1992</v>
       </c>
       <c r="B1992">
-        <v>855.1637065514859</v>
+        <v>855.1637065514858</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -16287,7 +16287,7 @@
         <v>1993</v>
       </c>
       <c r="B1993">
-        <v>881.4345944570889</v>
+        <v>881.4345944570888</v>
       </c>
     </row>
     <row r="1994" spans="1:2">
@@ -16295,7 +16295,7 @@
         <v>1994</v>
       </c>
       <c r="B1994">
-        <v>905.8913726333782</v>
+        <v>905.891372633378</v>
       </c>
     </row>
     <row r="1995" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>807.3726122769804</v>
+        <v>807.3726122769802</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16471,7 +16471,7 @@
         <v>2016</v>
       </c>
       <c r="B2016">
-        <v>836.694369695048</v>
+        <v>836.6943696950478</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -16487,7 +16487,7 @@
         <v>2018</v>
       </c>
       <c r="B2018">
-        <v>898.8049149185468</v>
+        <v>898.8049149185467</v>
       </c>
     </row>
     <row r="2019" spans="1:2">
@@ -16511,7 +16511,7 @@
         <v>2021</v>
       </c>
       <c r="B2021">
-        <v>950.5466067942074</v>
+        <v>950.5466067942072</v>
       </c>
     </row>
     <row r="2022" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>834.6252881620989</v>
+        <v>834.6252881620987</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16663,7 +16663,7 @@
         <v>2040</v>
       </c>
       <c r="B2040">
-        <v>725.9985076822712</v>
+        <v>725.9985076822711</v>
       </c>
     </row>
     <row r="2041" spans="1:2">
@@ -16719,7 +16719,7 @@
         <v>2047</v>
       </c>
       <c r="B2047">
-        <v>763.848632325384</v>
+        <v>763.8486323253838</v>
       </c>
     </row>
     <row r="2048" spans="1:2">
@@ -16735,7 +16735,7 @@
         <v>2049</v>
       </c>
       <c r="B2049">
-        <v>708.6135336688802</v>
+        <v>708.6135336688801</v>
       </c>
     </row>
     <row r="2050" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>644.9379890989297</v>
+        <v>644.9379890989296</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16919,7 +16919,7 @@
         <v>2072</v>
       </c>
       <c r="B2072">
-        <v>869.424543292747</v>
+        <v>869.4245432927469</v>
       </c>
     </row>
     <row r="2073" spans="1:2">
@@ -16943,7 +16943,7 @@
         <v>2075</v>
       </c>
       <c r="B2075">
-        <v>686.2404905774731</v>
+        <v>686.240490577473</v>
       </c>
     </row>
     <row r="2076" spans="1:2">
@@ -17047,7 +17047,7 @@
         <v>2088</v>
       </c>
       <c r="B2088">
-        <v>987.6962916549196</v>
+        <v>987.6962916549194</v>
       </c>
     </row>
     <row r="2089" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>1302.141001165837</v>
+        <v>1302.141001165836</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17215,7 +17215,7 @@
         <v>2109</v>
       </c>
       <c r="B2109">
-        <v>931.1951261113988</v>
+        <v>931.1951261113986</v>
       </c>
     </row>
     <row r="2110" spans="1:2">
@@ -17463,7 +17463,7 @@
         <v>2140</v>
       </c>
       <c r="B2140">
-        <v>1901.503513042541</v>
+        <v>1901.50351304254</v>
       </c>
     </row>
     <row r="2141" spans="1:2">
@@ -17535,7 +17535,7 @@
         <v>2149</v>
       </c>
       <c r="B2149">
-        <v>848.9886997668914</v>
+        <v>848.9886997668913</v>
       </c>
     </row>
     <row r="2150" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>719.0761697490902</v>
+        <v>719.0761697490901</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17591,7 +17591,7 @@
         <v>2156</v>
       </c>
       <c r="B2156">
-        <v>755.2323437887404</v>
+        <v>755.2323437887403</v>
       </c>
     </row>
     <row r="2157" spans="1:2">
@@ -17599,7 +17599,7 @@
         <v>2157</v>
       </c>
       <c r="B2157">
-        <v>789.5099324705714</v>
+        <v>789.5099324705712</v>
       </c>
     </row>
     <row r="2158" spans="1:2">
@@ -17791,7 +17791,7 @@
         <v>2181</v>
       </c>
       <c r="B2181">
-        <v>698.6989404309669</v>
+        <v>698.6989404309668</v>
       </c>
     </row>
     <row r="2182" spans="1:2">
@@ -17807,7 +17807,7 @@
         <v>2183</v>
       </c>
       <c r="B2183">
-        <v>811.0770302056598</v>
+        <v>811.0770302056596</v>
       </c>
     </row>
     <row r="2184" spans="1:2">
@@ -17903,7 +17903,7 @@
         <v>2195</v>
       </c>
       <c r="B2195">
-        <v>900.4900733908496</v>
+        <v>900.4900733908495</v>
       </c>
     </row>
     <row r="2196" spans="1:2">
@@ -17967,7 +17967,7 @@
         <v>2203</v>
       </c>
       <c r="B2203">
-        <v>688.743317247641</v>
+        <v>688.7433172476409</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
@@ -17975,7 +17975,7 @@
         <v>2204</v>
       </c>
       <c r="B2204">
-        <v>750.4670087001069</v>
+        <v>750.4670087001068</v>
       </c>
     </row>
     <row r="2205" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>973.9278142586096</v>
+        <v>973.9278142586094</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18111,7 +18111,7 @@
         <v>2221</v>
       </c>
       <c r="B2221">
-        <v>887.3604908588213</v>
+        <v>887.3604908588212</v>
       </c>
     </row>
     <row r="2222" spans="1:2">
@@ -18119,7 +18119,7 @@
         <v>2222</v>
       </c>
       <c r="B2222">
-        <v>871.5844768476811</v>
+        <v>871.584476847681</v>
       </c>
     </row>
     <row r="2223" spans="1:2">
@@ -18143,7 +18143,7 @@
         <v>2225</v>
       </c>
       <c r="B2225">
-        <v>844.4343758260941</v>
+        <v>844.434375826094</v>
       </c>
     </row>
     <row r="2226" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>756.1086261943378</v>
+        <v>756.1086261943377</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18463,7 +18463,7 @@
         <v>2265</v>
       </c>
       <c r="B2265">
-        <v>1855.602726967401</v>
+        <v>1855.6027269674</v>
       </c>
     </row>
     <row r="2266" spans="1:2">
@@ -18487,7 +18487,7 @@
         <v>2268</v>
       </c>
       <c r="B2268">
-        <v>959.1042811231188</v>
+        <v>959.1042811231184</v>
       </c>
     </row>
     <row r="2269" spans="1:2">
@@ -18503,7 +18503,7 @@
         <v>2270</v>
       </c>
       <c r="B2270">
-        <v>768.1509151729325</v>
+        <v>768.1509151729324</v>
       </c>
     </row>
     <row r="2271" spans="1:2">
@@ -18519,7 +18519,7 @@
         <v>2272</v>
       </c>
       <c r="B2272">
-        <v>636.1693036221823</v>
+        <v>636.1693036221822</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
@@ -18679,7 +18679,7 @@
         <v>2292</v>
       </c>
       <c r="B2292">
-        <v>739.7200937123954</v>
+        <v>739.7200937123953</v>
       </c>
     </row>
     <row r="2293" spans="1:2">
@@ -18767,7 +18767,7 @@
         <v>2303</v>
       </c>
       <c r="B2303">
-        <v>774.1354257823972</v>
+        <v>774.1354257823971</v>
       </c>
     </row>
     <row r="2304" spans="1:2">
@@ -18839,7 +18839,7 @@
         <v>2312</v>
       </c>
       <c r="B2312">
-        <v>888.849291735221</v>
+        <v>888.8492917352208</v>
       </c>
     </row>
     <row r="2313" spans="1:2">
@@ -18855,7 +18855,7 @@
         <v>2314</v>
       </c>
       <c r="B2314">
-        <v>774.5808937611624</v>
+        <v>774.5808937611623</v>
       </c>
     </row>
     <row r="2315" spans="1:2">
@@ -18895,7 +18895,7 @@
         <v>2319</v>
       </c>
       <c r="B2319">
-        <v>602.2492616075182</v>
+        <v>602.2492616075181</v>
       </c>
     </row>
     <row r="2320" spans="1:2">
@@ -19047,7 +19047,7 @@
         <v>2338</v>
       </c>
       <c r="B2338">
-        <v>848.8392335371741</v>
+        <v>848.839233537174</v>
       </c>
     </row>
     <row r="2339" spans="1:2">
@@ -19055,7 +19055,7 @@
         <v>2339</v>
       </c>
       <c r="B2339">
-        <v>788.4079853652047</v>
+        <v>788.4079853652046</v>
       </c>
     </row>
     <row r="2340" spans="1:2">
@@ -19063,7 +19063,7 @@
         <v>2340</v>
       </c>
       <c r="B2340">
-        <v>729.3629632061035</v>
+        <v>729.3629632061034</v>
       </c>
     </row>
     <row r="2341" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>658.2434142541548</v>
+        <v>658.2434142541547</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>821.6451718597879</v>
+        <v>821.6451718597878</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19191,7 +19191,7 @@
         <v>2356</v>
       </c>
       <c r="B2356">
-        <v>1220.212992308058</v>
+        <v>1220.212992308057</v>
       </c>
     </row>
     <row r="2357" spans="1:2">
@@ -19247,7 +19247,7 @@
         <v>2363</v>
       </c>
       <c r="B2363">
-        <v>641.8255746683462</v>
+        <v>641.8255746683461</v>
       </c>
     </row>
     <row r="2364" spans="1:2">
@@ -19263,7 +19263,7 @@
         <v>2365</v>
       </c>
       <c r="B2365">
-        <v>454.5531809637466</v>
+        <v>454.5531809637465</v>
       </c>
     </row>
     <row r="2366" spans="1:2">
@@ -19303,7 +19303,7 @@
         <v>2370</v>
       </c>
       <c r="B2370">
-        <v>302.0771116794085</v>
+        <v>302.0771116794084</v>
       </c>
     </row>
     <row r="2371" spans="1:2">
@@ -19319,7 +19319,7 @@
         <v>2372</v>
       </c>
       <c r="B2372">
-        <v>406.5364219894718</v>
+        <v>406.5364219894717</v>
       </c>
     </row>
     <row r="2373" spans="1:2">
@@ -19383,7 +19383,7 @@
         <v>2380</v>
       </c>
       <c r="B2380">
-        <v>718.5251961964069</v>
+        <v>718.5251961964068</v>
       </c>
     </row>
     <row r="2381" spans="1:2">
@@ -19623,7 +19623,7 @@
         <v>2410</v>
       </c>
       <c r="B2410">
-        <v>802.5633165325477</v>
+        <v>802.5633165325476</v>
       </c>
     </row>
     <row r="2411" spans="1:2">
@@ -19631,7 +19631,7 @@
         <v>2411</v>
       </c>
       <c r="B2411">
-        <v>766.2019927658346</v>
+        <v>766.2019927658345</v>
       </c>
     </row>
     <row r="2412" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>672.3694383176316</v>
+        <v>672.3694383176315</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>641.0518671262803</v>
+        <v>641.0518671262802</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -20087,7 +20087,7 @@
         <v>2468</v>
       </c>
       <c r="B2468">
-        <v>464.4208828354741</v>
+        <v>464.420882835474</v>
       </c>
     </row>
     <row r="2469" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>1189.431741117457</v>
+        <v>1189.431741117456</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20191,7 +20191,7 @@
         <v>2481</v>
       </c>
       <c r="B2481">
-        <v>890.6516786229882</v>
+        <v>890.6516786229881</v>
       </c>
     </row>
     <row r="2482" spans="1:2">
@@ -20207,7 +20207,7 @@
         <v>2483</v>
       </c>
       <c r="B2483">
-        <v>746.6570851975094</v>
+        <v>746.6570851975093</v>
       </c>
     </row>
     <row r="2484" spans="1:2">
@@ -20239,7 +20239,7 @@
         <v>2487</v>
       </c>
       <c r="B2487">
-        <v>467.3398703805411</v>
+        <v>467.339870380541</v>
       </c>
     </row>
     <row r="2488" spans="1:2">
@@ -20255,7 +20255,7 @@
         <v>2489</v>
       </c>
       <c r="B2489">
-        <v>414.2764281205179</v>
+        <v>414.2764281205178</v>
       </c>
     </row>
     <row r="2490" spans="1:2">
@@ -20295,7 +20295,7 @@
         <v>2494</v>
       </c>
       <c r="B2494">
-        <v>675.1067218187286</v>
+        <v>675.1067218187285</v>
       </c>
     </row>
     <row r="2495" spans="1:2">
@@ -20375,7 +20375,7 @@
         <v>2504</v>
       </c>
       <c r="B2504">
-        <v>871.0305725846111</v>
+        <v>871.030572584611</v>
       </c>
     </row>
     <row r="2505" spans="1:2">
@@ -20415,7 +20415,7 @@
         <v>2509</v>
       </c>
       <c r="B2509">
-        <v>525.2946682758221</v>
+        <v>525.294668275822</v>
       </c>
     </row>
     <row r="2510" spans="1:2">
@@ -20503,7 +20503,7 @@
         <v>2520</v>
       </c>
       <c r="B2520">
-        <v>608.6176952776292</v>
+        <v>608.6176952776291</v>
       </c>
     </row>
     <row r="2521" spans="1:2">
@@ -20511,7 +20511,7 @@
         <v>2521</v>
       </c>
       <c r="B2521">
-        <v>655.7874789501727</v>
+        <v>655.7874789501726</v>
       </c>
     </row>
     <row r="2522" spans="1:2">
@@ -20527,7 +20527,7 @@
         <v>2523</v>
       </c>
       <c r="B2523">
-        <v>730.7316049566519</v>
+        <v>730.7316049566518</v>
       </c>
     </row>
     <row r="2524" spans="1:2">
@@ -20543,7 +20543,7 @@
         <v>2525</v>
       </c>
       <c r="B2525">
-        <v>741.6279861740808</v>
+        <v>741.6279861740807</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20551,7 +20551,7 @@
         <v>2526</v>
       </c>
       <c r="B2526">
-        <v>737.5484373159148</v>
+        <v>737.5484373159147</v>
       </c>
     </row>
     <row r="2527" spans="1:2">
@@ -20631,7 +20631,7 @@
         <v>2536</v>
       </c>
       <c r="B2536">
-        <v>205.4823626918224</v>
+        <v>205.4823626918223</v>
       </c>
     </row>
     <row r="2537" spans="1:2">
@@ -20743,7 +20743,7 @@
         <v>2550</v>
       </c>
       <c r="B2550">
-        <v>590.4590137221722</v>
+        <v>590.4590137221721</v>
       </c>
     </row>
     <row r="2551" spans="1:2">
@@ -20759,7 +20759,7 @@
         <v>2552</v>
       </c>
       <c r="B2552">
-        <v>521.8569449923245</v>
+        <v>521.8569449923244</v>
       </c>
     </row>
     <row r="2553" spans="1:2">
@@ -20783,7 +20783,7 @@
         <v>2555</v>
       </c>
       <c r="B2555">
-        <v>422.6406755639127</v>
+        <v>422.6406755639126</v>
       </c>
     </row>
     <row r="2556" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>299.7471969220508</v>
+        <v>299.7471969220507</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -20823,7 +20823,7 @@
         <v>2560</v>
       </c>
       <c r="B2560">
-        <v>231.0478286073675</v>
+        <v>231.0478286073674</v>
       </c>
     </row>
     <row r="2561" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>403.752247122189</v>
+        <v>403.7522471221889</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -20983,7 +20983,7 @@
         <v>2580</v>
       </c>
       <c r="B2580">
-        <v>377.2205259921774</v>
+        <v>377.2205259921773</v>
       </c>
     </row>
     <row r="2581" spans="1:2">
@@ -21031,7 +21031,7 @@
         <v>2586</v>
       </c>
       <c r="B2586">
-        <v>324.7608100717966</v>
+        <v>324.7608100717965</v>
       </c>
     </row>
     <row r="2587" spans="1:2">
@@ -21063,7 +21063,7 @@
         <v>2590</v>
       </c>
       <c r="B2590">
-        <v>522.437225648874</v>
+        <v>522.4372256488739</v>
       </c>
     </row>
     <row r="2591" spans="1:2">
@@ -21095,7 +21095,7 @@
         <v>2594</v>
       </c>
       <c r="B2594">
-        <v>687.1050501415241</v>
+        <v>687.105050141524</v>
       </c>
     </row>
     <row r="2595" spans="1:2">
@@ -21103,7 +21103,7 @@
         <v>2595</v>
       </c>
       <c r="B2595">
-        <v>706.7378790214476</v>
+        <v>706.7378790214475</v>
       </c>
     </row>
     <row r="2596" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>682.3719528671434</v>
+        <v>682.3719528671432</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21183,7 +21183,7 @@
         <v>2605</v>
       </c>
       <c r="B2605">
-        <v>360.6327052039453</v>
+        <v>360.6327052039452</v>
       </c>
     </row>
     <row r="2606" spans="1:2">
@@ -21287,7 +21287,7 @@
         <v>2618</v>
       </c>
       <c r="B2618">
-        <v>844.0621756069942</v>
+        <v>844.0621756069941</v>
       </c>
     </row>
     <row r="2619" spans="1:2">
@@ -21295,7 +21295,7 @@
         <v>2619</v>
       </c>
       <c r="B2619">
-        <v>946.7923667889556</v>
+        <v>946.7923667889554</v>
       </c>
     </row>
     <row r="2620" spans="1:2">
@@ -21551,7 +21551,7 @@
         <v>2651</v>
       </c>
       <c r="B2651">
-        <v>893.7172016873859</v>
+        <v>893.7172016873858</v>
       </c>
     </row>
     <row r="2652" spans="1:2">
@@ -21591,7 +21591,7 @@
         <v>2656</v>
       </c>
       <c r="B2656">
-        <v>569.4428895397672</v>
+        <v>569.4428895397671</v>
       </c>
     </row>
     <row r="2657" spans="1:2">
@@ -21599,7 +21599,7 @@
         <v>2657</v>
       </c>
       <c r="B2657">
-        <v>559.0828283230886</v>
+        <v>559.0828283230885</v>
       </c>
     </row>
     <row r="2658" spans="1:2">
@@ -21615,7 +21615,7 @@
         <v>2659</v>
       </c>
       <c r="B2659">
-        <v>636.8257827487837</v>
+        <v>636.8257827487836</v>
       </c>
     </row>
     <row r="2660" spans="1:2">
@@ -21855,7 +21855,7 @@
         <v>2689</v>
       </c>
       <c r="B2689">
-        <v>792.6370004530879</v>
+        <v>792.6370004530878</v>
       </c>
     </row>
     <row r="2690" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>635.8733018731343</v>
+        <v>635.8733018731342</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22119,7 +22119,7 @@
         <v>2722</v>
       </c>
       <c r="B2722">
-        <v>502.004312833405</v>
+        <v>502.0043128334049</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -22207,7 +22207,7 @@
         <v>2733</v>
       </c>
       <c r="B2733">
-        <v>335.4930715075751</v>
+        <v>335.493071507575</v>
       </c>
     </row>
     <row r="2734" spans="1:2">
@@ -22239,7 +22239,7 @@
         <v>2737</v>
       </c>
       <c r="B2737">
-        <v>528.8965113409701</v>
+        <v>528.8965113409699</v>
       </c>
     </row>
     <row r="2738" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>536.5339426084847</v>
+        <v>536.5339426084846</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22311,7 +22311,7 @@
         <v>2746</v>
       </c>
       <c r="B2746">
-        <v>402.1667328030311</v>
+        <v>402.166732803031</v>
       </c>
     </row>
     <row r="2747" spans="1:2">
@@ -22351,7 +22351,7 @@
         <v>2751</v>
       </c>
       <c r="B2751">
-        <v>208.4019363789667</v>
+        <v>208.4019363789666</v>
       </c>
     </row>
     <row r="2752" spans="1:2">
@@ -22511,7 +22511,7 @@
         <v>2771</v>
       </c>
       <c r="B2771">
-        <v>306.6167820682727</v>
+        <v>306.6167820682726</v>
       </c>
     </row>
     <row r="2772" spans="1:2">
@@ -22551,7 +22551,7 @@
         <v>2776</v>
       </c>
       <c r="B2776">
-        <v>146.3778471118729</v>
+        <v>146.3778471118728</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -22687,7 +22687,7 @@
         <v>2793</v>
       </c>
       <c r="B2793">
-        <v>436.080913396922</v>
+        <v>436.0809133969219</v>
       </c>
     </row>
     <row r="2794" spans="1:2">
@@ -22823,7 +22823,7 @@
         <v>2810</v>
       </c>
       <c r="B2810">
-        <v>706.2894803322957</v>
+        <v>706.2894803322956</v>
       </c>
     </row>
     <row r="2811" spans="1:2">
@@ -22831,7 +22831,7 @@
         <v>2811</v>
       </c>
       <c r="B2811">
-        <v>760.6043359274029</v>
+        <v>760.6043359274028</v>
       </c>
     </row>
     <row r="2812" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>793.9587508374506</v>
+        <v>793.9587508374505</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -22903,7 +22903,7 @@
         <v>2820</v>
       </c>
       <c r="B2820">
-        <v>644.3577084423803</v>
+        <v>644.3577084423802</v>
       </c>
     </row>
     <row r="2821" spans="1:2">
@@ -22919,7 +22919,7 @@
         <v>2822</v>
       </c>
       <c r="B2822">
-        <v>537.0849161611681</v>
+        <v>537.0849161611679</v>
       </c>
     </row>
     <row r="2823" spans="1:2">
@@ -22951,7 +22951,7 @@
         <v>2826</v>
       </c>
       <c r="B2826">
-        <v>487.2540474575795</v>
+        <v>487.2540474575794</v>
       </c>
     </row>
     <row r="2827" spans="1:2">
@@ -22959,7 +22959,7 @@
         <v>2827</v>
       </c>
       <c r="B2827">
-        <v>528.6444702477213</v>
+        <v>528.6444702477212</v>
       </c>
     </row>
     <row r="2828" spans="1:2">
@@ -22975,7 +22975,7 @@
         <v>2829</v>
       </c>
       <c r="B2829">
-        <v>635.0527029648825</v>
+        <v>635.0527029648824</v>
       </c>
     </row>
     <row r="2830" spans="1:2">
@@ -23103,7 +23103,7 @@
         <v>2845</v>
       </c>
       <c r="B2845">
-        <v>728.7650982872343</v>
+        <v>728.7650982872342</v>
       </c>
     </row>
     <row r="2846" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>596.2647509980535</v>
+        <v>596.2647509980534</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23151,7 +23151,7 @@
         <v>2851</v>
       </c>
       <c r="B2851">
-        <v>657.8272533792557</v>
+        <v>657.8272533792556</v>
       </c>
     </row>
     <row r="2852" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>961.1733626560678</v>
+        <v>961.1733626560676</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>388.9345754074714</v>
+        <v>388.9345754074713</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -23383,7 +23383,7 @@
         <v>2880</v>
       </c>
       <c r="B2880">
-        <v>757.9110130821051</v>
+        <v>757.911013082105</v>
       </c>
     </row>
     <row r="2881" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>877.044390297942</v>
+        <v>877.0443902979418</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23503,7 +23503,7 @@
         <v>2895</v>
       </c>
       <c r="B2895">
-        <v>318.5535654729493</v>
+        <v>318.5535654729492</v>
       </c>
     </row>
     <row r="2896" spans="1:2">
@@ -23543,7 +23543,7 @@
         <v>2900</v>
       </c>
       <c r="B2900">
-        <v>420.2228394949566</v>
+        <v>420.2228394949565</v>
       </c>
     </row>
     <row r="2901" spans="1:2">
@@ -23559,7 +23559,7 @@
         <v>2902</v>
       </c>
       <c r="B2902">
-        <v>548.784312024529</v>
+        <v>548.7843120245288</v>
       </c>
     </row>
     <row r="2903" spans="1:2">
@@ -23647,7 +23647,7 @@
         <v>2913</v>
       </c>
       <c r="B2913">
-        <v>854.38999900942</v>
+        <v>854.3899990094199</v>
       </c>
     </row>
     <row r="2914" spans="1:2">
@@ -23711,7 +23711,7 @@
         <v>2921</v>
       </c>
       <c r="B2921">
-        <v>278.1548950776375</v>
+        <v>278.1548950776374</v>
       </c>
     </row>
     <row r="2922" spans="1:2">
@@ -23735,7 +23735,7 @@
         <v>2924</v>
       </c>
       <c r="B2924">
-        <v>412.3773277899924</v>
+        <v>412.3773277899923</v>
       </c>
     </row>
     <row r="2925" spans="1:2">
@@ -23743,7 +23743,7 @@
         <v>2925</v>
       </c>
       <c r="B2925">
-        <v>467.4512373752324</v>
+        <v>467.4512373752323</v>
       </c>
     </row>
     <row r="2926" spans="1:2">
@@ -23751,7 +23751,7 @@
         <v>2926</v>
       </c>
       <c r="B2926">
-        <v>530.1186175721879</v>
+        <v>530.1186175721878</v>
       </c>
     </row>
     <row r="2927" spans="1:2">
@@ -23911,7 +23911,7 @@
         <v>2946</v>
       </c>
       <c r="B2946">
-        <v>180.9271126465429</v>
+        <v>180.9271126465428</v>
       </c>
     </row>
     <row r="2947" spans="1:2">
@@ -23983,7 +23983,7 @@
         <v>2955</v>
       </c>
       <c r="B2955">
-        <v>632.7755409944839</v>
+        <v>632.7755409944838</v>
       </c>
     </row>
     <row r="2956" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>512.7336435587969</v>
+        <v>512.7336435587968</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24143,7 +24143,7 @@
         <v>2975</v>
       </c>
       <c r="B2975">
-        <v>287.674721626474</v>
+        <v>287.6747216264739</v>
       </c>
     </row>
     <row r="2976" spans="1:2">
@@ -24183,7 +24183,7 @@
         <v>2980</v>
       </c>
       <c r="B2980">
-        <v>628.9949245957525</v>
+        <v>628.9949245957524</v>
       </c>
     </row>
     <row r="2981" spans="1:2">
@@ -24231,7 +24231,7 @@
         <v>2986</v>
       </c>
       <c r="B2986">
-        <v>444.2751796378932</v>
+        <v>444.2751796378931</v>
       </c>
     </row>
     <row r="2987" spans="1:2">
@@ -24247,7 +24247,7 @@
         <v>2988</v>
       </c>
       <c r="B2988">
-        <v>356.2337089136385</v>
+        <v>356.2337089136384</v>
       </c>
     </row>
     <row r="2989" spans="1:2">
@@ -24311,7 +24311,7 @@
         <v>2996</v>
       </c>
       <c r="B2996">
-        <v>239.2250967280964</v>
+        <v>239.2250967280963</v>
       </c>
     </row>
     <row r="2997" spans="1:2">
@@ -24359,7 +24359,7 @@
         <v>3002</v>
       </c>
       <c r="B3002">
-        <v>531.5165664266025</v>
+        <v>531.5165664266024</v>
       </c>
     </row>
     <row r="3003" spans="1:2">
@@ -24583,7 +24583,7 @@
         <v>3030</v>
       </c>
       <c r="B3030">
-        <v>531.4872593227363</v>
+        <v>531.4872593227362</v>
       </c>
     </row>
     <row r="3031" spans="1:2">
@@ -24607,7 +24607,7 @@
         <v>3033</v>
       </c>
       <c r="B3033">
-        <v>351.6266321858821</v>
+        <v>351.626632185882</v>
       </c>
     </row>
     <row r="3034" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>363.6689211644768</v>
+        <v>363.6689211644767</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24703,7 +24703,7 @@
         <v>3045</v>
       </c>
       <c r="B3045">
-        <v>300.4915973602506</v>
+        <v>300.4915973602505</v>
       </c>
     </row>
     <row r="3046" spans="1:2">
@@ -24759,7 +24759,7 @@
         <v>3052</v>
       </c>
       <c r="B3052">
-        <v>531.3524466449521</v>
+        <v>531.352446644952</v>
       </c>
     </row>
     <row r="3053" spans="1:2">
@@ -24783,7 +24783,7 @@
         <v>3055</v>
       </c>
       <c r="B3055">
-        <v>458.8701173632282</v>
+        <v>458.8701173632281</v>
       </c>
     </row>
     <row r="3056" spans="1:2">
@@ -24927,7 +24927,7 @@
         <v>3073</v>
       </c>
       <c r="B3073">
-        <v>540.8948396637655</v>
+        <v>540.8948396637654</v>
       </c>
     </row>
     <row r="3074" spans="1:2">
@@ -24943,7 +24943,7 @@
         <v>3075</v>
       </c>
       <c r="B3075">
-        <v>624.2618273213718</v>
+        <v>624.2618273213717</v>
       </c>
     </row>
     <row r="3076" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>632.1659532340683</v>
+        <v>632.1659532340682</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25023,7 +25023,7 @@
         <v>3085</v>
       </c>
       <c r="B3085">
-        <v>476.0616644911027</v>
+        <v>476.0616644911026</v>
       </c>
     </row>
     <row r="3086" spans="1:2">
@@ -25031,7 +25031,7 @@
         <v>3086</v>
       </c>
       <c r="B3086">
-        <v>432.8366169989409</v>
+        <v>432.8366169989408</v>
       </c>
     </row>
     <row r="3087" spans="1:2">
@@ -25039,7 +25039,7 @@
         <v>3087</v>
       </c>
       <c r="B3087">
-        <v>385.5642584628659</v>
+        <v>385.5642584628658</v>
       </c>
     </row>
     <row r="3088" spans="1:2">
@@ -25055,7 +25055,7 @@
         <v>3089</v>
       </c>
       <c r="B3089">
-        <v>321.6864948762391</v>
+        <v>321.686494876239</v>
       </c>
     </row>
     <row r="3090" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>347.8694614702437</v>
+        <v>347.8694614702436</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25175,7 +25175,7 @@
         <v>3104</v>
       </c>
       <c r="B3104">
-        <v>610.2706159356792</v>
+        <v>610.2706159356791</v>
       </c>
     </row>
     <row r="3105" spans="1:2">
@@ -25215,7 +25215,7 @@
         <v>3109</v>
       </c>
       <c r="B3109">
-        <v>415.1468491053421</v>
+        <v>415.146849105342</v>
       </c>
     </row>
     <row r="3110" spans="1:2">
@@ -25279,7 +25279,7 @@
         <v>3117</v>
       </c>
       <c r="B3117">
-        <v>491.6970044036855</v>
+        <v>491.6970044036854</v>
       </c>
     </row>
     <row r="3118" spans="1:2">
@@ -25311,7 +25311,7 @@
         <v>3121</v>
       </c>
       <c r="B3121">
-        <v>675.0774147148625</v>
+        <v>675.0774147148624</v>
       </c>
     </row>
     <row r="3122" spans="1:2">
@@ -25327,7 +25327,7 @@
         <v>3123</v>
       </c>
       <c r="B3123">
-        <v>732.5632989482854</v>
+        <v>732.5632989482853</v>
       </c>
     </row>
     <row r="3124" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>533.6003015114846</v>
+        <v>533.6003015114845</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25519,7 +25519,7 @@
         <v>3147</v>
       </c>
       <c r="B3147">
-        <v>944.5620961847428</v>
+        <v>944.5620961847426</v>
       </c>
     </row>
     <row r="3148" spans="1:2">
@@ -25527,7 +25527,7 @@
         <v>3148</v>
       </c>
       <c r="B3148">
-        <v>989.8269181059876</v>
+        <v>989.8269181059874</v>
       </c>
     </row>
     <row r="3149" spans="1:2">
@@ -25583,7 +25583,7 @@
         <v>3155</v>
       </c>
       <c r="B3155">
-        <v>727.3818029847528</v>
+        <v>727.3818029847527</v>
       </c>
     </row>
     <row r="3156" spans="1:2">
@@ -25695,7 +25695,7 @@
         <v>3169</v>
       </c>
       <c r="B3169">
-        <v>815.9156330539586</v>
+        <v>815.9156330539585</v>
       </c>
     </row>
     <row r="3170" spans="1:2">
@@ -25759,7 +25759,7 @@
         <v>3177</v>
       </c>
       <c r="B3177">
-        <v>816.2438726172593</v>
+        <v>816.2438726172592</v>
       </c>
     </row>
     <row r="3178" spans="1:2">
@@ -25887,7 +25887,7 @@
         <v>3193</v>
       </c>
       <c r="B3193">
-        <v>688.7726243515071</v>
+        <v>688.772624351507</v>
       </c>
     </row>
     <row r="3194" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>800.9397029783638</v>
+        <v>800.9397029783637</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -25999,7 +25999,7 @@
         <v>3207</v>
       </c>
       <c r="B3207">
-        <v>295.9665805233194</v>
+        <v>295.9665805233193</v>
       </c>
     </row>
     <row r="3208" spans="1:2">
@@ -26047,7 +26047,7 @@
         <v>3213</v>
       </c>
       <c r="B3213">
-        <v>388.2429277562306</v>
+        <v>388.2429277562305</v>
       </c>
     </row>
     <row r="3214" spans="1:2">
@@ -26095,7 +26095,7 @@
         <v>3219</v>
       </c>
       <c r="B3219">
-        <v>717.6635673427426</v>
+        <v>717.6635673427425</v>
       </c>
     </row>
     <row r="3220" spans="1:2">
@@ -26111,7 +26111,7 @@
         <v>3221</v>
       </c>
       <c r="B3221">
-        <v>748.040380499991</v>
+        <v>748.0403804999909</v>
       </c>
     </row>
     <row r="3222" spans="1:2">
@@ -26119,7 +26119,7 @@
         <v>3222</v>
       </c>
       <c r="B3222">
-        <v>748.0872718661768</v>
+        <v>748.0872718661767</v>
       </c>
     </row>
     <row r="3223" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>607.800027079764</v>
+        <v>607.8000270797639</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26143,7 +26143,7 @@
         <v>3225</v>
       </c>
       <c r="B3225">
-        <v>545.8506709275289</v>
+        <v>545.8506709275288</v>
       </c>
     </row>
     <row r="3226" spans="1:2">
@@ -26159,7 +26159,7 @@
         <v>3227</v>
       </c>
       <c r="B3227">
-        <v>470.0918074335711</v>
+        <v>470.091807433571</v>
       </c>
     </row>
     <row r="3228" spans="1:2">
@@ -26255,7 +26255,7 @@
         <v>3239</v>
       </c>
       <c r="B3239">
-        <v>471.4838948672125</v>
+        <v>471.4838948672124</v>
       </c>
     </row>
     <row r="3240" spans="1:2">
@@ -26335,7 +26335,7 @@
         <v>3249</v>
       </c>
       <c r="B3249">
-        <v>503.5458664967637</v>
+        <v>503.5458664967636</v>
       </c>
     </row>
     <row r="3250" spans="1:2">
@@ -26351,7 +26351,7 @@
         <v>3251</v>
       </c>
       <c r="B3251">
-        <v>469.0367516943903</v>
+        <v>469.0367516943902</v>
       </c>
     </row>
     <row r="3252" spans="1:2">
@@ -26375,7 +26375,7 @@
         <v>3254</v>
       </c>
       <c r="B3254">
-        <v>287.0059335162488</v>
+        <v>287.0059335162487</v>
       </c>
     </row>
     <row r="3255" spans="1:2">
@@ -26471,7 +26471,7 @@
         <v>3266</v>
       </c>
       <c r="B3266">
-        <v>594.9400699033042</v>
+        <v>594.9400699033041</v>
       </c>
     </row>
     <row r="3267" spans="1:2">
@@ -26479,7 +26479,7 @@
         <v>3267</v>
       </c>
       <c r="B3267">
-        <v>629.1297372735368</v>
+        <v>629.1297372735366</v>
       </c>
     </row>
     <row r="3268" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>377.3025858830026</v>
+        <v>377.3025858830025</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26599,7 +26599,7 @@
         <v>3282</v>
       </c>
       <c r="B3282">
-        <v>185.0409508162322</v>
+        <v>185.0409508162321</v>
       </c>
     </row>
     <row r="3283" spans="1:2">
@@ -26607,7 +26607,7 @@
         <v>3283</v>
       </c>
       <c r="B3283">
-        <v>213.5787432058807</v>
+        <v>213.5787432058806</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -26695,7 +26695,7 @@
         <v>3294</v>
       </c>
       <c r="B3294">
-        <v>584.5800086866257</v>
+        <v>584.5800086866255</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -26703,7 +26703,7 @@
         <v>3295</v>
       </c>
       <c r="B3295">
-        <v>549.974180441494</v>
+        <v>549.9741804414939</v>
       </c>
     </row>
     <row r="3296" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>427.7987258443524</v>
+        <v>427.7987258443523</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>190.7297527476876</v>
+        <v>190.7297527476875</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26871,7 +26871,7 @@
         <v>3316</v>
       </c>
       <c r="B3316">
-        <v>657.4843602640219</v>
+        <v>657.4843602640218</v>
       </c>
     </row>
     <row r="3317" spans="1:2">
@@ -26895,7 +26895,7 @@
         <v>3319</v>
       </c>
       <c r="B3319">
-        <v>633.4466736730184</v>
+        <v>633.4466736730183</v>
       </c>
     </row>
     <row r="3320" spans="1:2">
@@ -26927,7 +26927,7 @@
         <v>3323</v>
       </c>
       <c r="B3323">
-        <v>436.7813531793226</v>
+        <v>436.7813531793225</v>
       </c>
     </row>
     <row r="3324" spans="1:2">
@@ -26975,7 +26975,7 @@
         <v>3329</v>
       </c>
       <c r="B3329">
-        <v>230.7869953829589</v>
+        <v>230.7869953829588</v>
       </c>
     </row>
     <row r="3330" spans="1:2">
@@ -26991,7 +26991,7 @@
         <v>3331</v>
       </c>
       <c r="B3331">
-        <v>304.9638614102227</v>
+        <v>304.9638614102226</v>
       </c>
     </row>
     <row r="3332" spans="1:2">
@@ -27015,7 +27015,7 @@
         <v>3334</v>
       </c>
       <c r="B3334">
-        <v>468.7759184699817</v>
+        <v>468.7759184699816</v>
       </c>
     </row>
     <row r="3335" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>589.0171042119584</v>
+        <v>589.0171042119583</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>849.2407408601401</v>
+        <v>849.24074086014</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27079,7 +27079,7 @@
         <v>3342</v>
       </c>
       <c r="B3342">
-        <v>887.8528502037724</v>
+        <v>887.8528502037723</v>
       </c>
     </row>
     <row r="3343" spans="1:2">
@@ -27087,7 +27087,7 @@
         <v>3343</v>
       </c>
       <c r="B3343">
-        <v>808.3250931526297</v>
+        <v>808.3250931526296</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -27095,7 +27095,7 @@
         <v>3344</v>
       </c>
       <c r="B3344">
-        <v>748.1605396258421</v>
+        <v>748.160539625842</v>
       </c>
     </row>
     <row r="3345" spans="1:2">
@@ -27119,7 +27119,7 @@
         <v>3347</v>
       </c>
       <c r="B3347">
-        <v>590.9074124113241</v>
+        <v>590.907412411324</v>
       </c>
     </row>
     <row r="3348" spans="1:2">
@@ -27135,7 +27135,7 @@
         <v>3349</v>
       </c>
       <c r="B3349">
-        <v>488.4673615576375</v>
+        <v>488.4673615576374</v>
       </c>
     </row>
     <row r="3350" spans="1:2">
@@ -27207,7 +27207,7 @@
         <v>3358</v>
       </c>
       <c r="B3358">
-        <v>551.4629813178937</v>
+        <v>551.4629813178935</v>
       </c>
     </row>
     <row r="3359" spans="1:2">
@@ -27231,7 +27231,7 @@
         <v>3361</v>
       </c>
       <c r="B3361">
-        <v>626.4217608763059</v>
+        <v>626.4217608763058</v>
       </c>
     </row>
     <row r="3362" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>698.728247534833</v>
+        <v>698.7282475348329</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27383,7 +27383,7 @@
         <v>3380</v>
       </c>
       <c r="B3380">
-        <v>226.6898622624733</v>
+        <v>226.6898622624732</v>
       </c>
     </row>
     <row r="3381" spans="1:2">
@@ -27423,7 +27423,7 @@
         <v>3385</v>
       </c>
       <c r="B3385">
-        <v>466.1265562804831</v>
+        <v>466.126556280483</v>
       </c>
     </row>
     <row r="3386" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>529.26871156007</v>
+        <v>529.2687115600698</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>213.1707883200641</v>
+        <v>213.170788320064</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27791,7 +27791,7 @@
         <v>3431</v>
       </c>
       <c r="B3431">
-        <v>513.164457985629</v>
+        <v>513.1644579856289</v>
       </c>
     </row>
     <row r="3432" spans="1:2">
@@ -27975,7 +27975,7 @@
         <v>3454</v>
       </c>
       <c r="B3454">
-        <v>525.6229078391228</v>
+        <v>525.6229078391227</v>
       </c>
     </row>
     <row r="3455" spans="1:2">
@@ -28191,7 +28191,7 @@
         <v>3481</v>
       </c>
       <c r="B3481">
-        <v>742.9497365584434</v>
+        <v>742.9497365584433</v>
       </c>
     </row>
     <row r="3482" spans="1:2">
@@ -28271,7 +28271,7 @@
         <v>3491</v>
       </c>
       <c r="B3491">
-        <v>565.5274604632516</v>
+        <v>565.5274604632515</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
@@ -28279,7 +28279,7 @@
         <v>3492</v>
       </c>
       <c r="B3492">
-        <v>487.2921466926055</v>
+        <v>487.2921466926054</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -28295,7 +28295,7 @@
         <v>3494</v>
       </c>
       <c r="B3494">
-        <v>370.8579537428396</v>
+        <v>370.8579537428395</v>
       </c>
     </row>
     <row r="3495" spans="1:2">
@@ -28399,7 +28399,7 @@
         <v>3507</v>
       </c>
       <c r="B3507">
-        <v>560.4983614398229</v>
+        <v>560.4983614398228</v>
       </c>
     </row>
     <row r="3508" spans="1:2">
@@ -28431,7 +28431,7 @@
         <v>3511</v>
       </c>
       <c r="B3511">
-        <v>503.3524396112472</v>
+        <v>503.3524396112471</v>
       </c>
     </row>
     <row r="3512" spans="1:2">
@@ -28455,7 +28455,7 @@
         <v>3514</v>
       </c>
       <c r="B3514">
-        <v>342.4505779653954</v>
+        <v>342.4505779653953</v>
       </c>
     </row>
     <row r="3515" spans="1:2">
@@ -28567,7 +28567,7 @@
         <v>3528</v>
       </c>
       <c r="B3528">
-        <v>440.0256495773037</v>
+        <v>440.0256495773036</v>
       </c>
     </row>
     <row r="3529" spans="1:2">
@@ -28575,7 +28575,7 @@
         <v>3529</v>
       </c>
       <c r="B3529">
-        <v>483.8602848298811</v>
+        <v>483.860284829881</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
@@ -28591,7 +28591,7 @@
         <v>3531</v>
       </c>
       <c r="B3531">
-        <v>547.532898689445</v>
+        <v>547.5328986894449</v>
       </c>
     </row>
     <row r="3532" spans="1:2">
@@ -28599,7 +28599,7 @@
         <v>3532</v>
       </c>
       <c r="B3532">
-        <v>557.684879468674</v>
+        <v>557.6848794686739</v>
       </c>
     </row>
     <row r="3533" spans="1:2">
@@ -28655,7 +28655,7 @@
         <v>3539</v>
       </c>
       <c r="B3539">
-        <v>340.1880695469298</v>
+        <v>340.1880695469297</v>
       </c>
     </row>
     <row r="3540" spans="1:2">
@@ -28679,7 +28679,7 @@
         <v>3542</v>
       </c>
       <c r="B3542">
-        <v>288.6166519447316</v>
+        <v>288.6166519447315</v>
       </c>
     </row>
     <row r="3543" spans="1:2">
@@ -28711,7 +28711,7 @@
         <v>3546</v>
       </c>
       <c r="B3546">
-        <v>249.4494660538747</v>
+        <v>249.4494660538746</v>
       </c>
     </row>
     <row r="3547" spans="1:2">
@@ -28751,7 +28751,7 @@
         <v>3551</v>
       </c>
       <c r="B3551">
-        <v>421.0932604797808</v>
+        <v>421.0932604797807</v>
       </c>
     </row>
     <row r="3552" spans="1:2">
@@ -28775,7 +28775,7 @@
         <v>3554</v>
       </c>
       <c r="B3554">
-        <v>411.5303524882611</v>
+        <v>411.530352488261</v>
       </c>
     </row>
     <row r="3555" spans="1:2">
@@ -28959,7 +28959,7 @@
         <v>3577</v>
       </c>
       <c r="B3577">
-        <v>427.4558327291186</v>
+        <v>427.4558327291185</v>
       </c>
     </row>
     <row r="3578" spans="1:2">
@@ -28975,7 +28975,7 @@
         <v>3579</v>
       </c>
       <c r="B3579">
-        <v>494.5485856098604</v>
+        <v>494.5485856098603</v>
       </c>
     </row>
     <row r="3580" spans="1:2">
@@ -29015,7 +29015,7 @@
         <v>3584</v>
       </c>
       <c r="B3584">
-        <v>356.9341486960391</v>
+        <v>356.934148696039</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>274.4328928866384</v>
+        <v>274.4328928866383</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29167,7 +29167,7 @@
         <v>3603</v>
       </c>
       <c r="B3603">
-        <v>526.2178420476054</v>
+        <v>526.2178420476052</v>
       </c>
     </row>
     <row r="3604" spans="1:2">
@@ -29199,7 +29199,7 @@
         <v>3607</v>
       </c>
       <c r="B3607">
-        <v>426.3245785198858</v>
+        <v>426.3245785198857</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>211.3141832901445</v>
+        <v>211.3141832901444</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29271,7 +29271,7 @@
         <v>3616</v>
       </c>
       <c r="B3616">
-        <v>99.57029924311476</v>
+        <v>99.57029924311472</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -29343,7 +29343,7 @@
         <v>3625</v>
       </c>
       <c r="B3625">
-        <v>471.5219941022385</v>
+        <v>471.5219941022384</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -29375,7 +29375,7 @@
         <v>3629</v>
       </c>
       <c r="B3629">
-        <v>556.1667714884082</v>
+        <v>556.1667714884081</v>
       </c>
     </row>
     <row r="3630" spans="1:2">
@@ -29399,7 +29399,7 @@
         <v>3632</v>
       </c>
       <c r="B3632">
-        <v>382.1998029390337</v>
+        <v>382.1998029390336</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -29415,7 +29415,7 @@
         <v>3634</v>
       </c>
       <c r="B3634">
-        <v>278.0200823998533</v>
+        <v>278.0200823998532</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -29495,7 +29495,7 @@
         <v>3644</v>
       </c>
       <c r="B3644">
-        <v>138.9775103146353</v>
+        <v>138.9775103146352</v>
       </c>
     </row>
     <row r="3645" spans="1:2">
@@ -29599,7 +29599,7 @@
         <v>3657</v>
       </c>
       <c r="B3657">
-        <v>488.6314813392878</v>
+        <v>488.6314813392877</v>
       </c>
     </row>
     <row r="3658" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>283.3000502323761</v>
+        <v>283.300050232376</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>3701</v>
       </c>
       <c r="B3701">
-        <v>401.3783717090321</v>
+        <v>401.378371709032</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -30335,7 +30335,7 @@
         <v>3749</v>
       </c>
       <c r="B3749">
-        <v>390.5493968304954</v>
+        <v>390.5493968304953</v>
       </c>
     </row>
     <row r="3750" spans="1:2">
@@ -30367,7 +30367,7 @@
         <v>3753</v>
       </c>
       <c r="B3753">
-        <v>237.2201977526141</v>
+        <v>237.220197752614</v>
       </c>
     </row>
     <row r="3754" spans="1:2">
@@ -30415,7 +30415,7 @@
         <v>3759</v>
       </c>
       <c r="B3759">
-        <v>86.81643378265032</v>
+        <v>86.81643378265031</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -30423,7 +30423,7 @@
         <v>3760</v>
       </c>
       <c r="B3760">
-        <v>72.39939017778276</v>
+        <v>72.39939017778275</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -30431,7 +30431,7 @@
         <v>3761</v>
       </c>
       <c r="B3761">
-        <v>71.5310206902292</v>
+        <v>71.53102069022918</v>
       </c>
     </row>
     <row r="3762" spans="1:2">
@@ -30503,7 +30503,7 @@
         <v>3770</v>
       </c>
       <c r="B3770">
-        <v>351.7467913117333</v>
+        <v>351.7467913117332</v>
       </c>
     </row>
     <row r="3771" spans="1:2">
@@ -30631,7 +30631,7 @@
         <v>3786</v>
       </c>
       <c r="B3786">
-        <v>91.22627370138758</v>
+        <v>91.22627370138756</v>
       </c>
     </row>
     <row r="3787" spans="1:2">
@@ -30679,7 +30679,7 @@
         <v>3792</v>
       </c>
       <c r="B3792">
-        <v>308.2022963874306</v>
+        <v>308.2022963874305</v>
       </c>
     </row>
     <row r="3793" spans="1:2">
@@ -30743,7 +30743,7 @@
         <v>3800</v>
       </c>
       <c r="B3800">
-        <v>346.6708009221188</v>
+        <v>346.6708009221187</v>
       </c>
     </row>
     <row r="3801" spans="1:2">
@@ -30815,7 +30815,7 @@
         <v>3809</v>
       </c>
       <c r="B3809">
-        <v>88.54174298724966</v>
+        <v>88.54174298724965</v>
       </c>
     </row>
     <row r="3810" spans="1:2">
@@ -30863,7 +30863,7 @@
         <v>3815</v>
       </c>
       <c r="B3815">
-        <v>277.6006977435289</v>
+        <v>277.6006977435288</v>
       </c>
     </row>
     <row r="3816" spans="1:2">
@@ -30943,7 +30943,7 @@
         <v>3825</v>
       </c>
       <c r="B3825">
-        <v>420.4162663804731</v>
+        <v>420.416266380473</v>
       </c>
     </row>
     <row r="3826" spans="1:2">
@@ -30951,7 +30951,7 @@
         <v>3826</v>
       </c>
       <c r="B3826">
-        <v>392.3517837182627</v>
+        <v>392.3517837182626</v>
       </c>
     </row>
     <row r="3827" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>401.5571450426155</v>
+        <v>401.5571450426154</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -31039,7 +31039,7 @@
         <v>3837</v>
       </c>
       <c r="B3837">
-        <v>348.3530286840349</v>
+        <v>348.3530286840348</v>
       </c>
     </row>
     <row r="3838" spans="1:2">
@@ -31047,7 +31047,7 @@
         <v>3838</v>
       </c>
       <c r="B3838">
-        <v>393.2222047030869</v>
+        <v>393.2222047030868</v>
       </c>
     </row>
     <row r="3839" spans="1:2">
@@ -31239,7 +31239,7 @@
         <v>3862</v>
       </c>
       <c r="B3862">
-        <v>409.7279656004938</v>
+        <v>409.7279656004937</v>
       </c>
     </row>
     <row r="3863" spans="1:2">
@@ -31263,7 +31263,7 @@
         <v>3865</v>
       </c>
       <c r="B3865">
-        <v>429.4809536062685</v>
+        <v>429.4809536062684</v>
       </c>
     </row>
     <row r="3866" spans="1:2">
@@ -31295,7 +31295,7 @@
         <v>3869</v>
       </c>
       <c r="B3869">
-        <v>458.4305108052362</v>
+        <v>458.4305108052361</v>
       </c>
     </row>
     <row r="3870" spans="1:2">
@@ -31335,7 +31335,7 @@
         <v>3874</v>
       </c>
       <c r="B3874">
-        <v>319.8196323599663</v>
+        <v>319.8196323599662</v>
       </c>
     </row>
     <row r="3875" spans="1:2">
@@ -31471,7 +31471,7 @@
         <v>3891</v>
       </c>
       <c r="B3891">
-        <v>442.6984574498952</v>
+        <v>442.6984574498951</v>
       </c>
     </row>
     <row r="3892" spans="1:2">
@@ -31519,7 +31519,7 @@
         <v>3897</v>
       </c>
       <c r="B3897">
-        <v>255.3012154828258</v>
+        <v>255.3012154828257</v>
       </c>
     </row>
     <row r="3898" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>497.3825825537156</v>
+        <v>497.3825825537155</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>517.3026210515272</v>
+        <v>517.3026210515271</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -32007,7 +32007,7 @@
         <v>3958</v>
       </c>
       <c r="B3958">
-        <v>351.8200590713986</v>
+        <v>351.8200590713985</v>
       </c>
     </row>
     <row r="3959" spans="1:2">
@@ -32047,7 +32047,7 @@
         <v>3963</v>
       </c>
       <c r="B3963">
-        <v>650.9957674680597</v>
+        <v>650.9957674680596</v>
       </c>
     </row>
     <row r="3964" spans="1:2">
@@ -32071,7 +32071,7 @@
         <v>3966</v>
       </c>
       <c r="B3966">
-        <v>636.4535825296838</v>
+        <v>636.4535825296837</v>
       </c>
     </row>
     <row r="3967" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>570.975651071966</v>
+        <v>570.9756510719659</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32215,7 +32215,7 @@
         <v>3984</v>
       </c>
       <c r="B3984">
-        <v>566.4066735792356</v>
+        <v>566.4066735792355</v>
       </c>
     </row>
     <row r="3985" spans="1:2">
@@ -32367,7 +32367,7 @@
         <v>4003</v>
       </c>
       <c r="B4003">
-        <v>304.4509870925654</v>
+        <v>304.4509870925653</v>
       </c>
     </row>
     <row r="4004" spans="1:2">
@@ -32391,7 +32391,7 @@
         <v>4006</v>
       </c>
       <c r="B4006">
-        <v>452.7742397590722</v>
+        <v>452.7742397590721</v>
       </c>
     </row>
     <row r="4007" spans="1:2">
@@ -32471,7 +32471,7 @@
         <v>4016</v>
       </c>
       <c r="B4016">
-        <v>630.454418368286</v>
+        <v>630.4544183682859</v>
       </c>
     </row>
     <row r="4017" spans="1:2">
@@ -32479,7 +32479,7 @@
         <v>4017</v>
       </c>
       <c r="B4017">
-        <v>586.0541560110922</v>
+        <v>586.0541560110921</v>
       </c>
     </row>
     <row r="4018" spans="1:2">
@@ -32519,7 +32519,7 @@
         <v>4022</v>
       </c>
       <c r="B4022">
-        <v>363.1179476117935</v>
+        <v>363.1179476117934</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -32567,7 +32567,7 @@
         <v>4028</v>
       </c>
       <c r="B4028">
-        <v>327.1346854849535</v>
+        <v>327.1346854849534</v>
       </c>
     </row>
     <row r="4029" spans="1:2">
@@ -32623,7 +32623,7 @@
         <v>4035</v>
       </c>
       <c r="B4035">
-        <v>518.8060754798599</v>
+        <v>518.8060754798598</v>
       </c>
     </row>
     <row r="4036" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>335.6483991580656</v>
+        <v>335.6483991580655</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -32847,7 +32847,7 @@
         <v>4063</v>
       </c>
       <c r="B4063">
-        <v>360.3718719795367</v>
+        <v>360.3718719795366</v>
       </c>
     </row>
     <row r="4064" spans="1:2">
@@ -32863,7 +32863,7 @@
         <v>4065</v>
       </c>
       <c r="B4065">
-        <v>237.5062350863476</v>
+        <v>237.5062350863475</v>
       </c>
     </row>
     <row r="4066" spans="1:2">
@@ -33007,7 +33007,7 @@
         <v>4083</v>
       </c>
       <c r="B4083">
-        <v>394.1453784748701</v>
+        <v>394.14537847487</v>
       </c>
     </row>
     <row r="4084" spans="1:2">
@@ -33031,7 +33031,7 @@
         <v>4086</v>
       </c>
       <c r="B4086">
-        <v>362.2094273919433</v>
+        <v>362.2094273919432</v>
       </c>
     </row>
     <row r="4087" spans="1:2">
@@ -33055,7 +33055,7 @@
         <v>4089</v>
       </c>
       <c r="B4089">
-        <v>229.4760886270267</v>
+        <v>229.4760886270266</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -33119,7 +33119,7 @@
         <v>4097</v>
       </c>
       <c r="B4097">
-        <v>65.96149867150899</v>
+        <v>65.96149867150898</v>
       </c>
     </row>
     <row r="4098" spans="1:2">
@@ -33159,7 +33159,7 @@
         <v>4102</v>
       </c>
       <c r="B4102">
-        <v>177.6836954616778</v>
+        <v>177.6836954616777</v>
       </c>
     </row>
     <row r="4103" spans="1:2">
@@ -33183,7 +33183,7 @@
         <v>4105</v>
       </c>
       <c r="B4105">
-        <v>325.8920642810294</v>
+        <v>325.8920642810293</v>
       </c>
     </row>
     <row r="4106" spans="1:2">
@@ -33215,7 +33215,7 @@
         <v>4109</v>
       </c>
       <c r="B4109">
-        <v>408.0838370736037</v>
+        <v>408.0838370736036</v>
       </c>
     </row>
     <row r="4110" spans="1:2">
@@ -33311,7 +33311,7 @@
         <v>4121</v>
       </c>
       <c r="B4121">
-        <v>77.97360133312155</v>
+        <v>77.97360133312154</v>
       </c>
     </row>
     <row r="4122" spans="1:2">
@@ -33375,7 +33375,7 @@
         <v>4129</v>
       </c>
       <c r="B4129">
-        <v>360.5506453131201</v>
+        <v>360.55064531312</v>
       </c>
     </row>
     <row r="4130" spans="1:2">
@@ -33383,7 +33383,7 @@
         <v>4130</v>
       </c>
       <c r="B4130">
-        <v>399.748896734075</v>
+        <v>399.7488967340749</v>
       </c>
     </row>
     <row r="4131" spans="1:2">
@@ -33495,7 +33495,7 @@
         <v>4144</v>
       </c>
       <c r="B4144">
-        <v>69.39834274189059</v>
+        <v>69.39834274189057</v>
       </c>
     </row>
     <row r="4145" spans="1:2">
@@ -33743,7 +33743,7 @@
         <v>4175</v>
       </c>
       <c r="B4175">
-        <v>500.040736874374</v>
+        <v>500.0407368743739</v>
       </c>
     </row>
     <row r="4176" spans="1:2">
@@ -33775,7 +33775,7 @@
         <v>4179</v>
       </c>
       <c r="B4179">
-        <v>687.1783179011894</v>
+        <v>687.1783179011893</v>
       </c>
     </row>
     <row r="4180" spans="1:2">
@@ -33783,7 +33783,7 @@
         <v>4180</v>
       </c>
       <c r="B4180">
-        <v>708.0625601161969</v>
+        <v>708.0625601161968</v>
       </c>
     </row>
     <row r="4181" spans="1:2">
@@ -33791,7 +33791,7 @@
         <v>4181</v>
       </c>
       <c r="B4181">
-        <v>719.1963288749414</v>
+        <v>719.1963288749413</v>
       </c>
     </row>
     <row r="4182" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>399.8075109418073</v>
+        <v>399.8075109418072</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -33999,7 +33999,7 @@
         <v>4207</v>
       </c>
       <c r="B4207">
-        <v>526.5607351628391</v>
+        <v>526.560735162839</v>
       </c>
     </row>
     <row r="4208" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>299.2489761563265</v>
+        <v>299.2489761563264</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34151,7 +34151,7 @@
         <v>4226</v>
       </c>
       <c r="B4226">
-        <v>501.8929458387137</v>
+        <v>501.8929458387136</v>
       </c>
     </row>
     <row r="4227" spans="1:2">
@@ -34159,7 +34159,7 @@
         <v>4227</v>
       </c>
       <c r="B4227">
-        <v>549.6752479820594</v>
+        <v>549.6752479820593</v>
       </c>
     </row>
     <row r="4228" spans="1:2">
@@ -34175,7 +34175,7 @@
         <v>4229</v>
       </c>
       <c r="B4229">
-        <v>552.5942355271264</v>
+        <v>552.5942355271263</v>
       </c>
     </row>
     <row r="4230" spans="1:2">
@@ -34183,7 +34183,7 @@
         <v>4230</v>
       </c>
       <c r="B4230">
-        <v>534.2714341900191</v>
+        <v>534.271434190019</v>
       </c>
     </row>
     <row r="4231" spans="1:2">
@@ -34223,7 +34223,7 @@
         <v>4235</v>
       </c>
       <c r="B4235">
-        <v>259.5639337401551</v>
+        <v>259.563933740155</v>
       </c>
     </row>
     <row r="4236" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>96.77264310805354</v>
+        <v>96.77264310805351</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34351,7 +34351,7 @@
         <v>4251</v>
       </c>
       <c r="B4251">
-        <v>391.636690383929</v>
+        <v>391.6366903839289</v>
       </c>
     </row>
     <row r="4252" spans="1:2">
@@ -34359,7 +34359,7 @@
         <v>4252</v>
       </c>
       <c r="B4252">
-        <v>389.4415883043555</v>
+        <v>389.4415883043554</v>
       </c>
     </row>
     <row r="4253" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>218.0375259880744</v>
+        <v>218.0375259880743</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>83.90418687147253</v>
+        <v>83.90418687147252</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34479,7 +34479,7 @@
         <v>4267</v>
       </c>
       <c r="B4267">
-        <v>97.0170643542971</v>
+        <v>97.01706435429708</v>
       </c>
     </row>
     <row r="4268" spans="1:2">
@@ -34519,7 +34519,7 @@
         <v>4272</v>
       </c>
       <c r="B4272">
-        <v>215.1756872955464</v>
+        <v>215.1756872955463</v>
       </c>
     </row>
     <row r="4273" spans="1:2">
@@ -34647,7 +34647,7 @@
         <v>4288</v>
       </c>
       <c r="B4288">
-        <v>45.97112312441863</v>
+        <v>45.97112312441862</v>
       </c>
     </row>
     <row r="4289" spans="1:2">
@@ -34663,7 +34663,7 @@
         <v>4290</v>
       </c>
       <c r="B4290">
-        <v>47.0540206122723</v>
+        <v>47.05402061227229</v>
       </c>
     </row>
     <row r="4291" spans="1:2">
@@ -34679,7 +34679,7 @@
         <v>4292</v>
       </c>
       <c r="B4292">
-        <v>80.65608054998884</v>
+        <v>80.65608054998883</v>
       </c>
     </row>
     <row r="4293" spans="1:2">
@@ -34743,7 +34743,7 @@
         <v>4300</v>
       </c>
       <c r="B4300">
-        <v>287.6641710690822</v>
+        <v>287.6641710690821</v>
       </c>
     </row>
     <row r="4301" spans="1:2">
@@ -34863,7 +34863,7 @@
         <v>4315</v>
       </c>
       <c r="B4315">
-        <v>73.87705435471327</v>
+        <v>73.87705435471325</v>
       </c>
     </row>
     <row r="4316" spans="1:2">
@@ -34871,7 +34871,7 @@
         <v>4316</v>
       </c>
       <c r="B4316">
-        <v>93.70799925677186</v>
+        <v>93.70799925677184</v>
       </c>
     </row>
     <row r="4317" spans="1:2">
@@ -34895,7 +34895,7 @@
         <v>4319</v>
       </c>
       <c r="B4319">
-        <v>148.1368594859183</v>
+        <v>148.1368594859182</v>
       </c>
     </row>
     <row r="4320" spans="1:2">
@@ -35231,7 +35231,7 @@
         <v>4361</v>
       </c>
       <c r="B4361">
-        <v>166.0684109864127</v>
+        <v>166.0684109864126</v>
       </c>
     </row>
     <row r="4362" spans="1:2">
@@ -35279,7 +35279,7 @@
         <v>4367</v>
       </c>
       <c r="B4367">
-        <v>352.4530925149071</v>
+        <v>352.453092514907</v>
       </c>
     </row>
     <row r="4368" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>80.25603858221611</v>
+        <v>80.25603858221609</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>82.09593856293203</v>
+        <v>82.09593856293202</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35607,7 +35607,7 @@
         <v>4408</v>
       </c>
       <c r="B4408">
-        <v>61.89689643631479</v>
+        <v>61.89689643631478</v>
       </c>
     </row>
     <row r="4409" spans="1:2">
@@ -35703,7 +35703,7 @@
         <v>4420</v>
       </c>
       <c r="B4420">
-        <v>428.9739407093844</v>
+        <v>428.9739407093843</v>
       </c>
     </row>
     <row r="4421" spans="1:2">
@@ -35743,7 +35743,7 @@
         <v>4425</v>
       </c>
       <c r="B4425">
-        <v>375.0547310164701</v>
+        <v>375.05473101647</v>
       </c>
     </row>
     <row r="4426" spans="1:2">
@@ -35823,7 +35823,7 @@
         <v>4435</v>
       </c>
       <c r="B4435">
-        <v>230.067799054084</v>
+        <v>230.0677990540839</v>
       </c>
     </row>
     <row r="4436" spans="1:2">
@@ -35831,7 +35831,7 @@
         <v>4436</v>
       </c>
       <c r="B4436">
-        <v>265.8898721096602</v>
+        <v>265.8898721096601</v>
       </c>
     </row>
     <row r="4437" spans="1:2">
@@ -35903,7 +35903,7 @@
         <v>4445</v>
       </c>
       <c r="B4445">
-        <v>405.2557015505217</v>
+        <v>405.2557015505216</v>
       </c>
     </row>
     <row r="4446" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>204.310078537177</v>
+        <v>204.3100785371769</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>85.61894551868006</v>
+        <v>85.61894551868005</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -36079,7 +36079,7 @@
         <v>4467</v>
       </c>
       <c r="B4467">
-        <v>423.5491957837629</v>
+        <v>423.5491957837628</v>
       </c>
     </row>
     <row r="4468" spans="1:2">
@@ -36111,7 +36111,7 @@
         <v>4471</v>
       </c>
       <c r="B4471">
-        <v>348.3149294490089</v>
+        <v>348.3149294490088</v>
       </c>
     </row>
     <row r="4472" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>146.5240895601649</v>
+        <v>146.5240895601648</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36303,7 +36303,7 @@
         <v>4495</v>
       </c>
       <c r="B4495">
-        <v>475.4286310475942</v>
+        <v>475.4286310475941</v>
       </c>
     </row>
     <row r="4496" spans="1:2">
@@ -36319,7 +36319,7 @@
         <v>4497</v>
       </c>
       <c r="B4497">
-        <v>347.6379353497012</v>
+        <v>347.6379353497011</v>
       </c>
     </row>
     <row r="4498" spans="1:2">
@@ -36423,7 +36423,7 @@
         <v>4510</v>
       </c>
       <c r="B4510">
-        <v>313.8058146466355</v>
+        <v>313.8058146466354</v>
       </c>
     </row>
     <row r="4511" spans="1:2">
@@ -36447,7 +36447,7 @@
         <v>4513</v>
       </c>
       <c r="B4513">
-        <v>452.8123389940982</v>
+        <v>452.8123389940981</v>
       </c>
     </row>
     <row r="4514" spans="1:2">
@@ -36623,7 +36623,7 @@
         <v>4535</v>
       </c>
       <c r="B4535">
-        <v>351.9695253011159</v>
+        <v>351.9695253011158</v>
       </c>
     </row>
     <row r="4536" spans="1:2">
@@ -36647,7 +36647,7 @@
         <v>4538</v>
       </c>
       <c r="B4538">
-        <v>374.2370628186049</v>
+        <v>374.2370628186048</v>
       </c>
     </row>
     <row r="4539" spans="1:2">
@@ -36719,7 +36719,7 @@
         <v>4547</v>
       </c>
       <c r="B4547">
-        <v>156.8829784926888</v>
+        <v>156.8829784926887</v>
       </c>
     </row>
     <row r="4548" spans="1:2">
@@ -36783,7 +36783,7 @@
         <v>4555</v>
       </c>
       <c r="B4555">
-        <v>93.28802845837016</v>
+        <v>93.28802845837014</v>
       </c>
     </row>
     <row r="4556" spans="1:2">
@@ -37031,7 +37031,7 @@
         <v>4586</v>
       </c>
       <c r="B4586">
-        <v>324.1951829671802</v>
+        <v>324.1951829671801</v>
       </c>
     </row>
     <row r="4587" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>100.5664477035247</v>
+        <v>100.5664477035246</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37159,7 +37159,7 @@
         <v>4602</v>
       </c>
       <c r="B4602">
-        <v>67.11795699006666</v>
+        <v>67.11795699006665</v>
       </c>
     </row>
     <row r="4603" spans="1:2">
@@ -37167,7 +37167,7 @@
         <v>4603</v>
       </c>
       <c r="B4603">
-        <v>87.53299247217731</v>
+        <v>87.5329924721773</v>
       </c>
     </row>
     <row r="4604" spans="1:2">
@@ -37383,7 +37383,7 @@
         <v>4630</v>
       </c>
       <c r="B4630">
-        <v>250.4397530935114</v>
+        <v>250.4397530935113</v>
       </c>
     </row>
     <row r="4631" spans="1:2">
@@ -37447,7 +37447,7 @@
         <v>4638</v>
       </c>
       <c r="B4638">
-        <v>420.0880268171724</v>
+        <v>420.0880268171723</v>
       </c>
     </row>
     <row r="4639" spans="1:2">
@@ -37527,7 +37527,7 @@
         <v>4648</v>
       </c>
       <c r="B4648">
-        <v>81.66746870440915</v>
+        <v>81.66746870440913</v>
       </c>
     </row>
     <row r="4649" spans="1:2">
@@ -37551,7 +37551,7 @@
         <v>4651</v>
       </c>
       <c r="B4651">
-        <v>96.41568258296402</v>
+        <v>96.415682582964</v>
       </c>
     </row>
     <row r="4652" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>334.8453845121335</v>
+        <v>334.8453845121334</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37807,7 +37807,7 @@
         <v>4683</v>
       </c>
       <c r="B4683">
-        <v>423.6459092265211</v>
+        <v>423.645909226521</v>
       </c>
     </row>
     <row r="4684" spans="1:2">
@@ -37815,7 +37815,7 @@
         <v>4684</v>
       </c>
       <c r="B4684">
-        <v>429.636281256759</v>
+        <v>429.6362812567589</v>
       </c>
     </row>
     <row r="4685" spans="1:2">
@@ -37919,7 +37919,7 @@
         <v>4697</v>
       </c>
       <c r="B4697">
-        <v>76.43497838014949</v>
+        <v>76.43497838014947</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -37943,7 +37943,7 @@
         <v>4700</v>
       </c>
       <c r="B4700">
-        <v>137.9324189907689</v>
+        <v>137.9324189907688</v>
       </c>
     </row>
     <row r="4701" spans="1:2">
@@ -38135,7 +38135,7 @@
         <v>4724</v>
       </c>
       <c r="B4724">
-        <v>70.23887048077133</v>
+        <v>70.23887048077131</v>
       </c>
     </row>
     <row r="4725" spans="1:2">
@@ -38271,7 +38271,7 @@
         <v>4741</v>
       </c>
       <c r="B4741">
-        <v>76.60847643503701</v>
+        <v>76.60847643503699</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>139.1258042601979</v>
+        <v>139.1258042601978</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38519,7 +38519,7 @@
         <v>4772</v>
       </c>
       <c r="B4772">
-        <v>126.7432598057174</v>
+        <v>126.7432598057173</v>
       </c>
     </row>
     <row r="4773" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>138.7020235382936</v>
+        <v>138.7020235382935</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>104.8690236221119</v>
+        <v>104.8690236221118</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -38927,7 +38927,7 @@
         <v>4823</v>
       </c>
       <c r="B4823">
-        <v>257.6167697592891</v>
+        <v>257.616769759289</v>
       </c>
     </row>
     <row r="4824" spans="1:2">
@@ -38951,7 +38951,7 @@
         <v>4826</v>
       </c>
       <c r="B4826">
-        <v>492.5088111807774</v>
+        <v>492.5088111807773</v>
       </c>
     </row>
     <row r="4827" spans="1:2">
@@ -38967,7 +38967,7 @@
         <v>4828</v>
       </c>
       <c r="B4828">
-        <v>546.744537595446</v>
+        <v>546.7445375954459</v>
       </c>
     </row>
     <row r="4829" spans="1:2">
@@ -38983,7 +38983,7 @@
         <v>4830</v>
       </c>
       <c r="B4830">
-        <v>554.364384600641</v>
+        <v>554.3643846006408</v>
       </c>
     </row>
     <row r="4831" spans="1:2">
@@ -38991,7 +38991,7 @@
         <v>4831</v>
       </c>
       <c r="B4831">
-        <v>524.6997340673396</v>
+        <v>524.6997340673395</v>
       </c>
     </row>
     <row r="4832" spans="1:2">
@@ -38999,7 +38999,7 @@
         <v>4832</v>
       </c>
       <c r="B4832">
-        <v>506.0545545877048</v>
+        <v>506.0545545877047</v>
       </c>
     </row>
     <row r="4833" spans="1:2">
@@ -39023,7 +39023,7 @@
         <v>4835</v>
       </c>
       <c r="B4835">
-        <v>384.365597914741</v>
+        <v>384.3655979147409</v>
       </c>
     </row>
     <row r="4836" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>338.6113473589318</v>
+        <v>338.6113473589317</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39071,7 +39071,7 @@
         <v>4841</v>
       </c>
       <c r="B4841">
-        <v>226.65117688537</v>
+        <v>226.6511768853699</v>
       </c>
     </row>
     <row r="4842" spans="1:2">
@@ -39127,7 +39127,7 @@
         <v>4848</v>
       </c>
       <c r="B4848">
-        <v>430.8349418048839</v>
+        <v>430.8349418048838</v>
       </c>
     </row>
     <row r="4849" spans="1:2">
@@ -39175,7 +39175,7 @@
         <v>4854</v>
       </c>
       <c r="B4854">
-        <v>491.890431289202</v>
+        <v>491.8904312892019</v>
       </c>
     </row>
     <row r="4855" spans="1:2">
@@ -39199,7 +39199,7 @@
         <v>4857</v>
       </c>
       <c r="B4857">
-        <v>344.2148656181367</v>
+        <v>344.2148656181366</v>
       </c>
     </row>
     <row r="4858" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>306.4233551827562</v>
+        <v>306.4233551827561</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39319,7 +39319,7 @@
         <v>4872</v>
       </c>
       <c r="B4872">
-        <v>351.9695253011159</v>
+        <v>351.9695253011158</v>
       </c>
     </row>
     <row r="4873" spans="1:2">
@@ -39351,7 +39351,7 @@
         <v>4876</v>
       </c>
       <c r="B4876">
-        <v>413.2711944579095</v>
+        <v>413.2711944579094</v>
       </c>
     </row>
     <row r="4877" spans="1:2">
@@ -39359,7 +39359,7 @@
         <v>4877</v>
       </c>
       <c r="B4877">
-        <v>394.866333229977</v>
+        <v>394.8663332299769</v>
       </c>
     </row>
     <row r="4878" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>132.2793717260302</v>
+        <v>132.2793717260301</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39631,7 +39631,7 @@
         <v>4911</v>
       </c>
       <c r="B4911">
-        <v>82.7861208589795</v>
+        <v>82.78612085897949</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39735,7 +39735,7 @@
         <v>4924</v>
       </c>
       <c r="B4924">
-        <v>349.0739834391418</v>
+        <v>349.0739834391417</v>
       </c>
     </row>
     <row r="4925" spans="1:2">
@@ -39743,7 +39743,7 @@
         <v>4925</v>
       </c>
       <c r="B4925">
-        <v>335.7597661527569</v>
+        <v>335.7597661527568</v>
       </c>
     </row>
     <row r="4926" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>72.26164678961193</v>
+        <v>72.26164678961192</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39863,7 +39863,7 @@
         <v>4940</v>
       </c>
       <c r="B4940">
-        <v>96.03937936932286</v>
+        <v>96.03937936932284</v>
       </c>
     </row>
     <row r="4941" spans="1:2">
@@ -39911,7 +39911,7 @@
         <v>4946</v>
       </c>
       <c r="B4946">
-        <v>233.2124512989202</v>
+        <v>233.2124512989201</v>
       </c>
     </row>
     <row r="4947" spans="1:2">
@@ -40023,7 +40023,7 @@
         <v>4960</v>
       </c>
       <c r="B4960">
-        <v>60.72197464232146</v>
+        <v>60.72197464232145</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>261.8305451531619</v>
+        <v>261.8305451531618</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40247,7 +40247,7 @@
         <v>4988</v>
       </c>
       <c r="B4988">
-        <v>81.04879574179505</v>
+        <v>81.04879574179503</v>
       </c>
     </row>
     <row r="4989" spans="1:2">
@@ -40279,7 +40279,7 @@
         <v>4992</v>
       </c>
       <c r="B4992">
-        <v>219.6637771816062</v>
+        <v>219.6637771816061</v>
       </c>
     </row>
     <row r="4993" spans="1:2">
@@ -40535,7 +40535,7 @@
         <v>5024</v>
       </c>
       <c r="B5024">
-        <v>329.6199278928017</v>
+        <v>329.6199278928016</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40599,7 +40599,7 @@
         <v>5032</v>
       </c>
       <c r="B5032">
-        <v>127.3088869103338</v>
+        <v>127.3088869103337</v>
       </c>
     </row>
     <row r="5033" spans="1:2">
@@ -40623,7 +40623,7 @@
         <v>5035</v>
       </c>
       <c r="B5035">
-        <v>137.0839783338443</v>
+        <v>137.0839783338442</v>
       </c>
     </row>
     <row r="5036" spans="1:2">
@@ -40807,7 +40807,7 @@
         <v>5058</v>
       </c>
       <c r="B5058">
-        <v>45.78267844655938</v>
+        <v>45.78267844655937</v>
       </c>
     </row>
     <row r="5059" spans="1:2">
@@ -40815,7 +40815,7 @@
         <v>5059</v>
       </c>
       <c r="B5059">
-        <v>48.74797121573487</v>
+        <v>48.74797121573486</v>
       </c>
     </row>
     <row r="5060" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>194.9183240322355</v>
+        <v>194.9183240322354</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -41111,7 +41111,7 @@
         <v>5096</v>
       </c>
       <c r="B5096">
-        <v>125.0548775519894</v>
+        <v>125.0548775519893</v>
       </c>
     </row>
     <row r="5097" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>86.77862761866301</v>
+        <v>86.77862761866299</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>79.9149038932143</v>
+        <v>79.91490389321429</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41215,7 +41215,7 @@
         <v>5109</v>
       </c>
       <c r="B5109">
-        <v>45.56375438067936</v>
+        <v>45.56375438067935</v>
       </c>
     </row>
     <row r="5110" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>71.82907393654779</v>
+        <v>71.82907393654777</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41327,7 +41327,7 @@
         <v>5123</v>
       </c>
       <c r="B5123">
-        <v>54.17974984628425</v>
+        <v>54.17974984628424</v>
       </c>
     </row>
     <row r="5124" spans="1:2">
@@ -41343,7 +41343,7 @@
         <v>5125</v>
       </c>
       <c r="B5125">
-        <v>46.66951140954861</v>
+        <v>46.6695114095486</v>
       </c>
     </row>
     <row r="5126" spans="1:2">
@@ -41359,7 +41359,7 @@
         <v>5127</v>
       </c>
       <c r="B5127">
-        <v>37.50547310164701</v>
+        <v>37.505473101647</v>
       </c>
     </row>
     <row r="5128" spans="1:2">
@@ -41439,7 +41439,7 @@
         <v>5137</v>
       </c>
       <c r="B5137">
-        <v>86.38591242685681</v>
+        <v>86.38591242685679</v>
       </c>
     </row>
     <row r="5138" spans="1:2">
@@ -41495,7 +41495,7 @@
         <v>5144</v>
       </c>
       <c r="B5144">
-        <v>96.66127611336223</v>
+        <v>96.66127611336222</v>
       </c>
     </row>
     <row r="5145" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>85.44867124521782</v>
+        <v>85.44867124521781</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41623,7 +41623,7 @@
         <v>5160</v>
       </c>
       <c r="B5160">
-        <v>154.5668380741482</v>
+        <v>154.5668380741481</v>
       </c>
     </row>
     <row r="5161" spans="1:2">
@@ -41655,7 +41655,7 @@
         <v>5164</v>
       </c>
       <c r="B5164">
-        <v>315.3532297307674</v>
+        <v>315.3532297307673</v>
       </c>
     </row>
     <row r="5165" spans="1:2">
@@ -41791,7 +41791,7 @@
         <v>5181</v>
       </c>
       <c r="B5181">
-        <v>171.6259170925478</v>
+        <v>171.6259170925477</v>
       </c>
     </row>
     <row r="5182" spans="1:2">
@@ -42047,7 +42047,7 @@
         <v>5213</v>
       </c>
       <c r="B5213">
-        <v>321.8652682098225</v>
+        <v>321.8652682098224</v>
       </c>
     </row>
     <row r="5214" spans="1:2">
@@ -42063,7 +42063,7 @@
         <v>5215</v>
       </c>
       <c r="B5215">
-        <v>285.2577647706339</v>
+        <v>285.2577647706338</v>
       </c>
     </row>
     <row r="5216" spans="1:2">
@@ -42135,7 +42135,7 @@
         <v>5224</v>
       </c>
       <c r="B5224">
-        <v>46.39900684086419</v>
+        <v>46.39900684086418</v>
       </c>
     </row>
     <row r="5225" spans="1:2">
@@ -42175,7 +42175,7 @@
         <v>5229</v>
       </c>
       <c r="B5229">
-        <v>100.5989785888161</v>
+        <v>100.598978588816</v>
       </c>
     </row>
     <row r="5230" spans="1:2">
@@ -42231,7 +42231,7 @@
         <v>5236</v>
       </c>
       <c r="B5236">
-        <v>290.1810651491058</v>
+        <v>290.1810651491057</v>
       </c>
     </row>
     <row r="5237" spans="1:2">
@@ -42343,7 +42343,7 @@
         <v>5250</v>
       </c>
       <c r="B5250">
-        <v>49.55831263763349</v>
+        <v>49.55831263763348</v>
       </c>
     </row>
     <row r="5251" spans="1:2">
@@ -42407,7 +42407,7 @@
         <v>5258</v>
       </c>
       <c r="B5258">
-        <v>384.365597914741</v>
+        <v>384.3655979147409</v>
       </c>
     </row>
     <row r="5259" spans="1:2">
@@ -42423,7 +42423,7 @@
         <v>5260</v>
       </c>
       <c r="B5260">
-        <v>504.1847613610454</v>
+        <v>504.1847613610453</v>
       </c>
     </row>
     <row r="5261" spans="1:2">
@@ -42487,7 +42487,7 @@
         <v>5268</v>
       </c>
       <c r="B5268">
-        <v>269.4307563987666</v>
+        <v>269.4307563987665</v>
       </c>
     </row>
     <row r="5269" spans="1:2">
@@ -42567,7 +42567,7 @@
         <v>5278</v>
       </c>
       <c r="B5278">
-        <v>313.9699344282859</v>
+        <v>313.9699344282858</v>
       </c>
     </row>
     <row r="5279" spans="1:2">
@@ -42607,7 +42607,7 @@
         <v>5283</v>
       </c>
       <c r="B5283">
-        <v>574.1759868141479</v>
+        <v>574.1759868141478</v>
       </c>
     </row>
     <row r="5284" spans="1:2">
@@ -42615,7 +42615,7 @@
         <v>5284</v>
       </c>
       <c r="B5284">
-        <v>592.067973724423</v>
+        <v>592.0679737244229</v>
       </c>
     </row>
     <row r="5285" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>591.9478145985719</v>
+        <v>591.9478145985718</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -42647,7 +42647,7 @@
         <v>5288</v>
       </c>
       <c r="B5288">
-        <v>484.7981121535974</v>
+        <v>484.7981121535973</v>
       </c>
     </row>
     <row r="5289" spans="1:2">
@@ -42679,7 +42679,7 @@
         <v>5292</v>
       </c>
       <c r="B5292">
-        <v>277.9380225090281</v>
+        <v>277.938022509028</v>
       </c>
     </row>
     <row r="5293" spans="1:2">
@@ -42767,7 +42767,7 @@
         <v>5303</v>
       </c>
       <c r="B5303">
-        <v>387.9527874279559</v>
+        <v>387.9527874279558</v>
       </c>
     </row>
     <row r="5304" spans="1:2">
@@ -42815,7 +42815,7 @@
         <v>5309</v>
       </c>
       <c r="B5309">
-        <v>576.1102556693128</v>
+        <v>576.1102556693127</v>
       </c>
     </row>
     <row r="5310" spans="1:2">
@@ -42839,7 +42839,7 @@
         <v>5312</v>
       </c>
       <c r="B5312">
-        <v>500.9111578591982</v>
+        <v>500.9111578591981</v>
       </c>
     </row>
     <row r="5313" spans="1:2">
@@ -42999,7 +42999,7 @@
         <v>5332</v>
       </c>
       <c r="B5332">
-        <v>655.3273574194744</v>
+        <v>655.3273574194743</v>
       </c>
     </row>
     <row r="5333" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>504.2375141480045</v>
+        <v>504.2375141480044</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43063,7 +43063,7 @@
         <v>5340</v>
       </c>
       <c r="B5340">
-        <v>467.7706848073733</v>
+        <v>467.7706848073732</v>
       </c>
     </row>
     <row r="5341" spans="1:2">
@@ -43151,7 +43151,7 @@
         <v>5351</v>
       </c>
       <c r="B5351">
-        <v>467.9934187967559</v>
+        <v>467.9934187967558</v>
       </c>
     </row>
     <row r="5352" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>422.5146550172883</v>
+        <v>422.5146550172882</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43375,7 +43375,7 @@
         <v>5379</v>
       </c>
       <c r="B5379">
-        <v>429.2640810376591</v>
+        <v>429.264081037659</v>
       </c>
     </row>
     <row r="5380" spans="1:2">
@@ -43391,7 +43391,7 @@
         <v>5381</v>
       </c>
       <c r="B5381">
-        <v>400.0683441662159</v>
+        <v>400.0683441662158</v>
       </c>
     </row>
     <row r="5382" spans="1:2">
@@ -43551,7 +43551,7 @@
         <v>5401</v>
       </c>
       <c r="B5401">
-        <v>354.3814999492988</v>
+        <v>354.3814999492987</v>
       </c>
     </row>
     <row r="5402" spans="1:2">
@@ -43607,7 +43607,7 @@
         <v>5408</v>
       </c>
       <c r="B5408">
-        <v>280.8693190377189</v>
+        <v>280.8693190377188</v>
       </c>
     </row>
     <row r="5409" spans="1:2">
@@ -43695,7 +43695,7 @@
         <v>5419</v>
       </c>
       <c r="B5419">
-        <v>86.23351548675291</v>
+        <v>86.23351548675289</v>
       </c>
     </row>
     <row r="5420" spans="1:2">
@@ -43759,7 +43759,7 @@
         <v>5427</v>
       </c>
       <c r="B5427">
-        <v>372.5548350566888</v>
+        <v>372.5548350566887</v>
       </c>
     </row>
     <row r="5428" spans="1:2">
@@ -43975,7 +43975,7 @@
         <v>5454</v>
       </c>
       <c r="B5454">
-        <v>349.9678501070589</v>
+        <v>349.9678501070588</v>
       </c>
     </row>
     <row r="5455" spans="1:2">
@@ -44167,7 +44167,7 @@
         <v>5478</v>
       </c>
       <c r="B5478">
-        <v>360.3718719795367</v>
+        <v>360.3718719795366</v>
       </c>
     </row>
     <row r="5479" spans="1:2">
@@ -44191,7 +44191,7 @@
         <v>5481</v>
       </c>
       <c r="B5481">
-        <v>274.3564013455478</v>
+        <v>274.3564013455477</v>
       </c>
     </row>
     <row r="5482" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>153.2641373072985</v>
+        <v>153.2641373072984</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44239,7 +44239,7 @@
         <v>5487</v>
       </c>
       <c r="B5487">
-        <v>104.1973048015001</v>
+        <v>104.1973048015</v>
       </c>
     </row>
     <row r="5488" spans="1:2">
@@ -44415,7 +44415,7 @@
         <v>5509</v>
       </c>
       <c r="B5509">
-        <v>220.9327747790098</v>
+        <v>220.9327747790097</v>
       </c>
     </row>
     <row r="5510" spans="1:2">
@@ -44431,7 +44431,7 @@
         <v>5511</v>
       </c>
       <c r="B5511">
-        <v>165.0508683401805</v>
+        <v>165.0508683401804</v>
       </c>
     </row>
     <row r="5512" spans="1:2">
@@ -44551,7 +44551,7 @@
         <v>5526</v>
       </c>
       <c r="B5526">
-        <v>499.4077034308655</v>
+        <v>499.4077034308654</v>
       </c>
     </row>
     <row r="5527" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>431.7053627897081</v>
+        <v>431.705362789708</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44591,7 +44591,7 @@
         <v>5531</v>
       </c>
       <c r="B5531">
-        <v>329.2477276737018</v>
+        <v>329.2477276737017</v>
       </c>
     </row>
     <row r="5532" spans="1:2">
@@ -44719,7 +44719,7 @@
         <v>5547</v>
       </c>
       <c r="B5547">
-        <v>380.7637548495931</v>
+        <v>380.763754849593</v>
       </c>
     </row>
     <row r="5548" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>134.531329587104</v>
+        <v>134.5313295871039</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44927,7 +44927,7 @@
         <v>5573</v>
       </c>
       <c r="B5573">
-        <v>345.7622807022686</v>
+        <v>345.7622807022685</v>
       </c>
     </row>
     <row r="5574" spans="1:2">
@@ -45063,7 +45063,7 @@
         <v>5590</v>
       </c>
       <c r="B5590">
-        <v>262.7358415915868</v>
+        <v>262.7358415915867</v>
       </c>
     </row>
     <row r="5591" spans="1:2">
@@ -45079,7 +45079,7 @@
         <v>5592</v>
       </c>
       <c r="B5592">
-        <v>368.542692537415</v>
+        <v>368.5426925374149</v>
       </c>
     </row>
     <row r="5593" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>250.1150303826746</v>
+        <v>250.1150303826745</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45295,7 +45295,7 @@
         <v>5619</v>
       </c>
       <c r="B5619">
-        <v>554.4845437264921</v>
+        <v>554.484543726492</v>
       </c>
     </row>
     <row r="5620" spans="1:2">
@@ -45319,7 +45319,7 @@
         <v>5622</v>
       </c>
       <c r="B5622">
-        <v>567.9247815595014</v>
+        <v>567.9247815595013</v>
       </c>
     </row>
     <row r="5623" spans="1:2">
@@ -45367,7 +45367,7 @@
         <v>5628</v>
       </c>
       <c r="B5628">
-        <v>242.1352921420035</v>
+        <v>242.1352921420034</v>
       </c>
     </row>
     <row r="5629" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>85.76723946424271</v>
+        <v>85.76723946424269</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -45871,7 +45871,7 @@
         <v>5691</v>
       </c>
       <c r="B5691">
-        <v>519.9519832410258</v>
+        <v>519.9519832410257</v>
       </c>
     </row>
     <row r="5692" spans="1:2">
@@ -45983,7 +45983,7 @@
         <v>5705</v>
       </c>
       <c r="B5705">
-        <v>236.8459460362436</v>
+        <v>236.8459460362435</v>
       </c>
     </row>
     <row r="5706" spans="1:2">
@@ -46007,7 +46007,7 @@
         <v>5708</v>
       </c>
       <c r="B5708">
-        <v>375.42693123557</v>
+        <v>375.4269312355699</v>
       </c>
     </row>
     <row r="5709" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>431.3331625706082</v>
+        <v>431.3331625706081</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46295,7 +46295,7 @@
         <v>5744</v>
       </c>
       <c r="B5744">
-        <v>283.3220305602757</v>
+        <v>283.3220305602756</v>
       </c>
     </row>
     <row r="5745" spans="1:2">
@@ -46367,7 +46367,7 @@
         <v>5753</v>
       </c>
       <c r="B5753">
-        <v>59.7466342256565</v>
+        <v>59.74663422565649</v>
       </c>
     </row>
     <row r="5754" spans="1:2">
@@ -46535,7 +46535,7 @@
         <v>5774</v>
       </c>
       <c r="B5774">
-        <v>91.32562478349378</v>
+        <v>91.32562478349377</v>
       </c>
     </row>
     <row r="5775" spans="1:2">
@@ -46559,7 +46559,7 @@
         <v>5777</v>
       </c>
       <c r="B5777">
-        <v>51.82551019271766</v>
+        <v>51.82551019271765</v>
       </c>
     </row>
     <row r="5778" spans="1:2">
@@ -46575,7 +46575,7 @@
         <v>5779</v>
       </c>
       <c r="B5779">
-        <v>92.79801368172838</v>
+        <v>92.79801368172836</v>
       </c>
     </row>
     <row r="5780" spans="1:2">
@@ -46599,7 +46599,7 @@
         <v>5782</v>
       </c>
       <c r="B5782">
-        <v>184.3123762141201</v>
+        <v>184.31237621412</v>
       </c>
     </row>
     <row r="5783" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>223.6199431324957</v>
+        <v>223.6199431324956</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -46719,7 +46719,7 @@
         <v>5797</v>
       </c>
       <c r="B5797">
-        <v>139.3623125883976</v>
+        <v>139.3623125883975</v>
       </c>
     </row>
     <row r="5798" spans="1:2">
@@ -46743,7 +46743,7 @@
         <v>5800</v>
       </c>
       <c r="B5800">
-        <v>70.91908836150431</v>
+        <v>70.91908836150429</v>
       </c>
     </row>
     <row r="5801" spans="1:2">
@@ -46759,7 +46759,7 @@
         <v>5802</v>
       </c>
       <c r="B5802">
-        <v>87.7316946363897</v>
+        <v>87.73169463638969</v>
       </c>
     </row>
     <row r="5803" spans="1:2">
@@ -46823,7 +46823,7 @@
         <v>5810</v>
       </c>
       <c r="B5810">
-        <v>522.6306525343905</v>
+        <v>522.6306525343904</v>
       </c>
     </row>
     <row r="5811" spans="1:2">
@@ -47231,7 +47231,7 @@
         <v>5861</v>
       </c>
       <c r="B5861">
-        <v>484.7307058147053</v>
+        <v>484.7307058147052</v>
       </c>
     </row>
     <row r="5862" spans="1:2">
@@ -47239,7 +47239,7 @@
         <v>5862</v>
       </c>
       <c r="B5862">
-        <v>488.6900955470201</v>
+        <v>488.69009554702</v>
       </c>
     </row>
     <row r="5863" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>471.4106271075472</v>
+        <v>471.4106271075471</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -47887,7 +47887,7 @@
         <v>5943</v>
       </c>
       <c r="B5943">
-        <v>74.51946607145894</v>
+        <v>74.51946607145892</v>
       </c>
     </row>
     <row r="5944" spans="1:2">
@@ -48007,7 +48007,7 @@
         <v>5958</v>
       </c>
       <c r="B5958">
-        <v>380.7930619534592</v>
+        <v>380.7930619534591</v>
       </c>
     </row>
     <row r="5959" spans="1:2">
@@ -48095,7 +48095,7 @@
         <v>5969</v>
       </c>
       <c r="B5969">
-        <v>86.30238718083832</v>
+        <v>86.30238718083831</v>
       </c>
     </row>
     <row r="5970" spans="1:2">
@@ -48119,7 +48119,7 @@
         <v>5972</v>
       </c>
       <c r="B5972">
-        <v>162.3267730358233</v>
+        <v>162.3267730358232</v>
       </c>
     </row>
     <row r="5973" spans="1:2">
@@ -48191,7 +48191,7 @@
         <v>5981</v>
       </c>
       <c r="B5981">
-        <v>332.0319025409846</v>
+        <v>332.0319025409845</v>
       </c>
     </row>
     <row r="5982" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>78.27898135540667</v>
+        <v>78.27898135540666</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48271,7 +48271,7 @@
         <v>5991</v>
       </c>
       <c r="B5991">
-        <v>68.84004241324072</v>
+        <v>68.84004241324071</v>
       </c>
     </row>
     <row r="5992" spans="1:2">
@@ -48367,7 +48367,7 @@
         <v>6003</v>
       </c>
       <c r="B6003">
-        <v>504.3342275907627</v>
+        <v>504.3342275907626</v>
       </c>
     </row>
     <row r="6004" spans="1:2">
@@ -48375,7 +48375,7 @@
         <v>6004</v>
       </c>
       <c r="B6004">
-        <v>508.8211451926679</v>
+        <v>508.8211451926678</v>
       </c>
     </row>
     <row r="6005" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>270.6953579305903</v>
+        <v>270.6953579305902</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>485.2670258154556</v>
+        <v>485.2670258154555</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48783,7 +48783,7 @@
         <v>6055</v>
       </c>
       <c r="B6055">
-        <v>468.7612649180486</v>
+        <v>468.7612649180485</v>
       </c>
     </row>
     <row r="6056" spans="1:2">
@@ -48807,7 +48807,7 @@
         <v>6058</v>
       </c>
       <c r="B6058">
-        <v>338.6846151185971</v>
+        <v>338.684615118597</v>
       </c>
     </row>
     <row r="6059" spans="1:2">
@@ -48951,7 +48951,7 @@
         <v>6076</v>
       </c>
       <c r="B6076">
-        <v>489.0183351103208</v>
+        <v>489.0183351103207</v>
       </c>
     </row>
     <row r="6077" spans="1:2">
@@ -48991,7 +48991,7 @@
         <v>6081</v>
       </c>
       <c r="B6081">
-        <v>331.6890094257508</v>
+        <v>331.6890094257507</v>
       </c>
     </row>
     <row r="6082" spans="1:2">
@@ -49055,7 +49055,7 @@
         <v>6089</v>
       </c>
       <c r="B6089">
-        <v>69.31686899314273</v>
+        <v>69.31686899314272</v>
       </c>
     </row>
     <row r="6090" spans="1:2">
@@ -49151,7 +49151,7 @@
         <v>6101</v>
       </c>
       <c r="B6101">
-        <v>478.5175997950848</v>
+        <v>478.5175997950847</v>
       </c>
     </row>
     <row r="6102" spans="1:2">
@@ -49175,7 +49175,7 @@
         <v>6104</v>
       </c>
       <c r="B6104">
-        <v>407.1313561979543</v>
+        <v>407.1313561979542</v>
       </c>
     </row>
     <row r="6105" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>472.1315818626541</v>
+        <v>472.131581862654</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49543,7 +49543,7 @@
         <v>6150</v>
       </c>
       <c r="B6150">
-        <v>466.7742432759247</v>
+        <v>466.7742432759246</v>
       </c>
     </row>
     <row r="6151" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>144.8796679622361</v>
+        <v>144.879667962236</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -49847,7 +49847,7 @@
         <v>6188</v>
       </c>
       <c r="B6188">
-        <v>336.3253932573733</v>
+        <v>336.3253932573732</v>
       </c>
     </row>
     <row r="6189" spans="1:2">
@@ -49895,7 +49895,7 @@
         <v>6194</v>
       </c>
       <c r="B6194">
-        <v>533.1987941885186</v>
+        <v>533.1987941885185</v>
       </c>
     </row>
     <row r="6195" spans="1:2">
@@ -49935,7 +49935,7 @@
         <v>6199</v>
       </c>
       <c r="B6199">
-        <v>604.4648786597979</v>
+        <v>604.4648786597978</v>
       </c>
     </row>
     <row r="6200" spans="1:2">
@@ -50071,7 +50071,7 @@
         <v>6216</v>
       </c>
       <c r="B6216">
-        <v>362.6636875018684</v>
+        <v>362.6636875018683</v>
       </c>
     </row>
     <row r="6217" spans="1:2">
@@ -50127,7 +50127,7 @@
         <v>6223</v>
       </c>
       <c r="B6223">
-        <v>364.3166081599184</v>
+        <v>364.3166081599183</v>
       </c>
     </row>
     <row r="6224" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>235.6704381001729</v>
+        <v>235.6704381001728</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>145.0941959625362</v>
+        <v>145.0941959625361</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50199,7 +50199,7 @@
         <v>6232</v>
       </c>
       <c r="B6232">
-        <v>95.70234767486232</v>
+        <v>95.7023476748623</v>
       </c>
     </row>
     <row r="6233" spans="1:2">
@@ -50231,7 +50231,7 @@
         <v>6236</v>
       </c>
       <c r="B6236">
-        <v>146.9381989377934</v>
+        <v>146.9381989377933</v>
       </c>
     </row>
     <row r="6237" spans="1:2">
@@ -50263,7 +50263,7 @@
         <v>6240</v>
       </c>
       <c r="B6240">
-        <v>269.8038358309825</v>
+        <v>269.8038358309824</v>
       </c>
     </row>
     <row r="6241" spans="1:2">
@@ -50287,7 +50287,7 @@
         <v>6243</v>
       </c>
       <c r="B6243">
-        <v>343.4704651799369</v>
+        <v>343.4704651799368</v>
       </c>
     </row>
     <row r="6244" spans="1:2">
@@ -50303,7 +50303,7 @@
         <v>6245</v>
       </c>
       <c r="B6245">
-        <v>322.5276087571972</v>
+        <v>322.5276087571971</v>
       </c>
     </row>
     <row r="6246" spans="1:2">
@@ -50487,7 +50487,7 @@
         <v>6268</v>
       </c>
       <c r="B6268">
-        <v>421.4801142508138</v>
+        <v>421.4801142508137</v>
       </c>
     </row>
     <row r="6269" spans="1:2">
@@ -50639,7 +50639,7 @@
         <v>6287</v>
       </c>
       <c r="B6287">
-        <v>411.9172062592941</v>
+        <v>411.917206259294</v>
       </c>
     </row>
     <row r="6288" spans="1:2">
@@ -50663,7 +50663,7 @@
         <v>6290</v>
       </c>
       <c r="B6290">
-        <v>623.0866124563398</v>
+        <v>623.0866124563397</v>
       </c>
     </row>
     <row r="6291" spans="1:2">
@@ -50687,7 +50687,7 @@
         <v>6293</v>
       </c>
       <c r="B6293">
-        <v>839.1034136328442</v>
+        <v>839.1034136328441</v>
       </c>
     </row>
     <row r="6294" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>616.8793678574925</v>
+        <v>616.8793678574924</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50791,7 +50791,7 @@
         <v>6306</v>
       </c>
       <c r="B6306">
-        <v>305.7610146353816</v>
+        <v>305.7610146353815</v>
       </c>
     </row>
     <row r="6307" spans="1:2">
@@ -50807,7 +50807,7 @@
         <v>6308</v>
       </c>
       <c r="B6308">
-        <v>380.309494739668</v>
+        <v>380.3094947396679</v>
       </c>
     </row>
     <row r="6309" spans="1:2">
@@ -50839,7 +50839,7 @@
         <v>6312</v>
       </c>
       <c r="B6312">
-        <v>592.6042937251733</v>
+        <v>592.6042937251732</v>
       </c>
     </row>
     <row r="6313" spans="1:2">
@@ -50879,7 +50879,7 @@
         <v>6317</v>
       </c>
       <c r="B6317">
-        <v>876.0039881106942</v>
+        <v>876.0039881106941</v>
       </c>
     </row>
     <row r="6318" spans="1:2">
@@ -50903,7 +50903,7 @@
         <v>6320</v>
       </c>
       <c r="B6320">
-        <v>878.7705787156573</v>
+        <v>878.7705787156572</v>
       </c>
     </row>
     <row r="6321" spans="1:2">
@@ -50927,7 +50927,7 @@
         <v>6323</v>
       </c>
       <c r="B6323">
-        <v>642.0629622096619</v>
+        <v>642.0629622096618</v>
       </c>
     </row>
     <row r="6324" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>457.7154174709025</v>
+        <v>457.7154174709024</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -50999,7 +50999,7 @@
         <v>6332</v>
       </c>
       <c r="B6332">
-        <v>356.1897482578393</v>
+        <v>356.1897482578392</v>
       </c>
     </row>
     <row r="6333" spans="1:2">
@@ -51015,7 +51015,7 @@
         <v>6334</v>
       </c>
       <c r="B6334">
-        <v>441.4997969017703</v>
+        <v>441.4997969017702</v>
       </c>
     </row>
     <row r="6335" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>631.8377136707676</v>
+        <v>631.8377136707675</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>563.3997647225702</v>
+        <v>563.3997647225701</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51151,7 +51151,7 @@
         <v>6351</v>
       </c>
       <c r="B6351">
-        <v>388.5184145325723</v>
+        <v>388.5184145325722</v>
       </c>
     </row>
     <row r="6352" spans="1:2">
@@ -51207,7 +51207,7 @@
         <v>6358</v>
       </c>
       <c r="B6358">
-        <v>512.5695237771465</v>
+        <v>512.5695237771464</v>
       </c>
     </row>
     <row r="6359" spans="1:2">
@@ -51223,7 +51223,7 @@
         <v>6360</v>
       </c>
       <c r="B6360">
-        <v>596.5314456432353</v>
+        <v>596.5314456432352</v>
       </c>
     </row>
     <row r="6361" spans="1:2">
@@ -51231,7 +51231,7 @@
         <v>6361</v>
       </c>
       <c r="B6361">
-        <v>642.7780555439956</v>
+        <v>642.7780555439955</v>
       </c>
     </row>
     <row r="6362" spans="1:2">
@@ -51303,7 +51303,7 @@
         <v>6370</v>
       </c>
       <c r="B6370">
-        <v>676.1647082682961</v>
+        <v>676.164708268296</v>
       </c>
     </row>
     <row r="6371" spans="1:2">
@@ -51319,7 +51319,7 @@
         <v>6372</v>
       </c>
       <c r="B6372">
-        <v>579.8322578603119</v>
+        <v>579.8322578603118</v>
       </c>
     </row>
     <row r="6373" spans="1:2">
@@ -51343,7 +51343,7 @@
         <v>6375</v>
       </c>
       <c r="B6375">
-        <v>399.4587564058003</v>
+        <v>399.4587564058002</v>
       </c>
     </row>
     <row r="6376" spans="1:2">
@@ -51375,7 +51375,7 @@
         <v>6379</v>
       </c>
       <c r="B6379">
-        <v>413.077767572393</v>
+        <v>413.0777675723929</v>
       </c>
     </row>
     <row r="6380" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>677.0116835700273</v>
+        <v>677.0116835700272</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51511,7 +51511,7 @@
         <v>6396</v>
       </c>
       <c r="B6396">
-        <v>474.983163068829</v>
+        <v>474.9831630688289</v>
       </c>
     </row>
     <row r="6397" spans="1:2">
@@ -51527,7 +51527,7 @@
         <v>6398</v>
       </c>
       <c r="B6398">
-        <v>315.9188568353838</v>
+        <v>315.9188568353837</v>
       </c>
     </row>
     <row r="6399" spans="1:2">
@@ -51567,7 +51567,7 @@
         <v>6403</v>
       </c>
       <c r="B6403">
-        <v>263.4705706855108</v>
+        <v>263.4705706855107</v>
       </c>
     </row>
     <row r="6404" spans="1:2">
@@ -51607,7 +51607,7 @@
         <v>6408</v>
       </c>
       <c r="B6408">
-        <v>457.3666629348955</v>
+        <v>457.3666629348954</v>
       </c>
     </row>
     <row r="6409" spans="1:2">
@@ -51679,7 +51679,7 @@
         <v>6417</v>
       </c>
       <c r="B6417">
-        <v>564.3082849424204</v>
+        <v>564.3082849424203</v>
       </c>
     </row>
     <row r="6418" spans="1:2">
@@ -51791,7 +51791,7 @@
         <v>6431</v>
       </c>
       <c r="B6431">
-        <v>406.4162628636206</v>
+        <v>406.4162628636205</v>
       </c>
     </row>
     <row r="6432" spans="1:2">
@@ -51831,7 +51831,7 @@
         <v>6436</v>
       </c>
       <c r="B6436">
-        <v>591.3675339420224</v>
+        <v>591.3675339420223</v>
       </c>
     </row>
     <row r="6437" spans="1:2">
@@ -51871,7 +51871,7 @@
         <v>6441</v>
       </c>
       <c r="B6441">
-        <v>464.3183079719426</v>
+        <v>464.3183079719425</v>
       </c>
     </row>
     <row r="6442" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>374.1022501408207</v>
+        <v>374.1022501408206</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -51967,7 +51967,7 @@
         <v>6453</v>
       </c>
       <c r="B6453">
-        <v>268.8041705181086</v>
+        <v>268.8041705181085</v>
       </c>
     </row>
     <row r="6454" spans="1:2">
@@ -52007,7 +52007,7 @@
         <v>6458</v>
       </c>
       <c r="B6458">
-        <v>481.389695973966</v>
+        <v>481.3896959739659</v>
       </c>
     </row>
     <row r="6459" spans="1:2">
@@ -52415,7 +52415,7 @@
         <v>6509</v>
       </c>
       <c r="B6509">
-        <v>639.9059593651144</v>
+        <v>639.9059593651143</v>
       </c>
     </row>
     <row r="6510" spans="1:2">
@@ -52463,7 +52463,7 @@
         <v>6515</v>
       </c>
       <c r="B6515">
-        <v>454.0549601980223</v>
+        <v>454.0549601980222</v>
       </c>
     </row>
     <row r="6516" spans="1:2">
@@ -52519,7 +52519,7 @@
         <v>6522</v>
       </c>
       <c r="B6522">
-        <v>354.8416214799971</v>
+        <v>354.841621479997</v>
       </c>
     </row>
     <row r="6523" spans="1:2">
@@ -52543,7 +52543,7 @@
         <v>6525</v>
       </c>
       <c r="B6525">
-        <v>432.904023337833</v>
+        <v>432.9040233378329</v>
       </c>
     </row>
     <row r="6526" spans="1:2">
@@ -52623,7 +52623,7 @@
         <v>6535</v>
       </c>
       <c r="B6535">
-        <v>533.3482604182359</v>
+        <v>533.3482604182358</v>
       </c>
     </row>
     <row r="6536" spans="1:2">
@@ -52647,7 +52647,7 @@
         <v>6538</v>
       </c>
       <c r="B6538">
-        <v>459.3009317900604</v>
+        <v>459.3009317900603</v>
       </c>
     </row>
     <row r="6539" spans="1:2">
@@ -52703,7 +52703,7 @@
         <v>6545</v>
       </c>
       <c r="B6545">
-        <v>358.8156647642449</v>
+        <v>358.8156647642448</v>
       </c>
     </row>
     <row r="6546" spans="1:2">
@@ -52735,7 +52735,7 @@
         <v>6549</v>
       </c>
       <c r="B6549">
-        <v>454.0168609629963</v>
+        <v>454.0168609629962</v>
       </c>
     </row>
     <row r="6550" spans="1:2">
@@ -52799,7 +52799,7 @@
         <v>6557</v>
       </c>
       <c r="B6557">
-        <v>648.1676319449778</v>
+        <v>648.1676319449776</v>
       </c>
     </row>
     <row r="6558" spans="1:2">
@@ -52855,7 +52855,7 @@
         <v>6564</v>
       </c>
       <c r="B6564">
-        <v>462.1964736520345</v>
+        <v>462.1964736520344</v>
       </c>
     </row>
     <row r="6565" spans="1:2">
@@ -52871,7 +52871,7 @@
         <v>6566</v>
       </c>
       <c r="B6566">
-        <v>352.5791130615315</v>
+        <v>352.5791130615314</v>
       </c>
     </row>
     <row r="6567" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>872.4754128052116</v>
+        <v>872.4754128052115</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53023,7 +53023,7 @@
         <v>6585</v>
       </c>
       <c r="B6585">
-        <v>767.866636265431</v>
+        <v>767.8666362654309</v>
       </c>
     </row>
     <row r="6586" spans="1:2">
@@ -53127,7 +53127,7 @@
         <v>6598</v>
       </c>
       <c r="B6598">
-        <v>611.3872165929789</v>
+        <v>611.3872165929788</v>
       </c>
     </row>
     <row r="6599" spans="1:2">
@@ -53175,7 +53175,7 @@
         <v>6604</v>
       </c>
       <c r="B6604">
-        <v>1223.814835373206</v>
+        <v>1223.814835373205</v>
       </c>
     </row>
     <row r="6605" spans="1:2">
@@ -53223,7 +53223,7 @@
         <v>6610</v>
       </c>
       <c r="B6610">
-        <v>944.8141372779914</v>
+        <v>944.8141372779912</v>
       </c>
     </row>
     <row r="6611" spans="1:2">
@@ -53311,7 +53311,7 @@
         <v>6621</v>
       </c>
       <c r="B6621">
-        <v>575.0845070339981</v>
+        <v>575.084507033998</v>
       </c>
     </row>
     <row r="6622" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>487.447474343096</v>
+        <v>487.4474743430959</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53503,7 +53503,7 @@
         <v>6645</v>
       </c>
       <c r="B6645">
-        <v>480.8914752082417</v>
+        <v>480.8914752082416</v>
       </c>
     </row>
     <row r="6646" spans="1:2">
@@ -53511,7 +53511,7 @@
         <v>6646</v>
       </c>
       <c r="B6646">
-        <v>527.9147233614545</v>
+        <v>527.9147233614544</v>
       </c>
     </row>
     <row r="6647" spans="1:2">
@@ -53527,7 +53527,7 @@
         <v>6648</v>
       </c>
       <c r="B6648">
-        <v>612.8467103655124</v>
+        <v>612.8467103655123</v>
       </c>
     </row>
     <row r="6649" spans="1:2">
@@ -53543,7 +53543,7 @@
         <v>6650</v>
       </c>
       <c r="B6650">
-        <v>674.095626735347</v>
+        <v>674.0956267353469</v>
       </c>
     </row>
     <row r="6651" spans="1:2">
@@ -53591,7 +53591,7 @@
         <v>6656</v>
       </c>
       <c r="B6656">
-        <v>616.0616996596274</v>
+        <v>616.0616996596273</v>
       </c>
     </row>
     <row r="6657" spans="1:2">
@@ -53607,7 +53607,7 @@
         <v>6658</v>
       </c>
       <c r="B6658">
-        <v>488.9802358752948</v>
+        <v>488.9802358752947</v>
       </c>
     </row>
     <row r="6659" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>237.4704804196309</v>
+        <v>237.4704804196308</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -53735,7 +53735,7 @@
         <v>6674</v>
       </c>
       <c r="B6674">
-        <v>728.7650982872343</v>
+        <v>728.7650982872342</v>
       </c>
     </row>
     <row r="6675" spans="1:2">
@@ -53887,7 +53887,7 @@
         <v>6693</v>
       </c>
       <c r="B6693">
-        <v>544.303255843397</v>
+        <v>544.3032558433969</v>
       </c>
     </row>
     <row r="6694" spans="1:2">
@@ -53935,7 +53935,7 @@
         <v>6699</v>
       </c>
       <c r="B6699">
-        <v>773.3617182403312</v>
+        <v>773.3617182403311</v>
       </c>
     </row>
     <row r="6700" spans="1:2">
@@ -53943,7 +53943,7 @@
         <v>6700</v>
       </c>
       <c r="B6700">
-        <v>783.1239145381406</v>
+        <v>783.1239145381405</v>
       </c>
     </row>
     <row r="6701" spans="1:2">
@@ -53951,7 +53951,7 @@
         <v>6701</v>
       </c>
       <c r="B6701">
-        <v>795.9692181626674</v>
+        <v>795.9692181626673</v>
       </c>
     </row>
     <row r="6702" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>808.0115071412621</v>
+        <v>808.011507141262</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -54103,7 +54103,7 @@
         <v>6720</v>
       </c>
       <c r="B6720">
-        <v>555.3022119243573</v>
+        <v>555.3022119243572</v>
       </c>
     </row>
     <row r="6721" spans="1:2">
@@ -54175,7 +54175,7 @@
         <v>6729</v>
       </c>
       <c r="B6729">
-        <v>573.4608934798142</v>
+        <v>573.4608934798141</v>
       </c>
     </row>
     <row r="6730" spans="1:2">
@@ -54199,7 +54199,7 @@
         <v>6732</v>
       </c>
       <c r="B6732">
-        <v>417.5646851742982</v>
+        <v>417.5646851742981</v>
       </c>
     </row>
     <row r="6733" spans="1:2">
@@ -54239,7 +54239,7 @@
         <v>6737</v>
       </c>
       <c r="B6737">
-        <v>322.5276087571972</v>
+        <v>322.5276087571971</v>
       </c>
     </row>
     <row r="6738" spans="1:2">
@@ -54303,7 +54303,7 @@
         <v>6745</v>
       </c>
       <c r="B6745">
-        <v>483.8983840649071</v>
+        <v>483.898384064907</v>
       </c>
     </row>
     <row r="6746" spans="1:2">
@@ -54311,7 +54311,7 @@
         <v>6746</v>
       </c>
       <c r="B6746">
-        <v>502.9655858402142</v>
+        <v>502.9655858402141</v>
       </c>
     </row>
     <row r="6747" spans="1:2">
@@ -54319,7 +54319,7 @@
         <v>6747</v>
       </c>
       <c r="B6747">
-        <v>521.648864554875</v>
+        <v>521.6488645548749</v>
       </c>
     </row>
     <row r="6748" spans="1:2">
@@ -54335,7 +54335,7 @@
         <v>6749</v>
       </c>
       <c r="B6749">
-        <v>507.9741698909366</v>
+        <v>507.9741698909365</v>
       </c>
     </row>
     <row r="6750" spans="1:2">
@@ -54351,7 +54351,7 @@
         <v>6751</v>
       </c>
       <c r="B6751">
-        <v>492.6494852793349</v>
+        <v>492.6494852793348</v>
       </c>
     </row>
     <row r="6752" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>263.6713243469938</v>
+        <v>263.6713243469937</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54423,7 +54423,7 @@
         <v>6760</v>
       </c>
       <c r="B6760">
-        <v>219.7730926790269</v>
+        <v>219.7730926790268</v>
       </c>
     </row>
     <row r="6761" spans="1:2">
@@ -54439,7 +54439,7 @@
         <v>6762</v>
       </c>
       <c r="B6762">
-        <v>302.4493118985084</v>
+        <v>302.4493118985083</v>
       </c>
     </row>
     <row r="6763" spans="1:2">
@@ -54623,7 +54623,7 @@
         <v>6785</v>
       </c>
       <c r="B6785">
-        <v>406.1642217703719</v>
+        <v>406.1642217703718</v>
       </c>
     </row>
     <row r="6786" spans="1:2">
@@ -54639,7 +54639,7 @@
         <v>6787</v>
       </c>
       <c r="B6787">
-        <v>499.9059241965898</v>
+        <v>499.9059241965897</v>
       </c>
     </row>
     <row r="6788" spans="1:2">
@@ -54655,7 +54655,7 @@
         <v>6789</v>
       </c>
       <c r="B6789">
-        <v>583.5835671551771</v>
+        <v>583.583567155177</v>
       </c>
     </row>
     <row r="6790" spans="1:2">
@@ -54663,7 +54663,7 @@
         <v>6790</v>
       </c>
       <c r="B6790">
-        <v>634.920820997485</v>
+        <v>634.9208209974848</v>
       </c>
     </row>
     <row r="6791" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>768.3736491623151</v>
+        <v>768.373649162315</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54815,7 +54815,7 @@
         <v>6809</v>
       </c>
       <c r="B6809">
-        <v>526.5753887147722</v>
+        <v>526.5753887147721</v>
       </c>
     </row>
     <row r="6810" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>828.8635115420168</v>
+        <v>828.8635115420167</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -55007,7 +55007,7 @@
         <v>6833</v>
       </c>
       <c r="B6833">
-        <v>520.2802228043265</v>
+        <v>520.2802228043264</v>
       </c>
     </row>
     <row r="6834" spans="1:2">
@@ -55111,7 +55111,7 @@
         <v>6846</v>
       </c>
       <c r="B6846">
-        <v>1970.005937619244</v>
+        <v>1970.005937619243</v>
       </c>
     </row>
     <row r="6847" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>909.1972139494782</v>
+        <v>909.1972139494781</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55183,7 +55183,7 @@
         <v>6855</v>
       </c>
       <c r="B6855">
-        <v>667.3667156876825</v>
+        <v>667.3667156876824</v>
       </c>
     </row>
     <row r="6856" spans="1:2">
@@ -55223,7 +55223,7 @@
         <v>6860</v>
       </c>
       <c r="B6860">
-        <v>756.0793190904717</v>
+        <v>756.0793190904716</v>
       </c>
     </row>
     <row r="6861" spans="1:2">
@@ -55247,7 +55247,7 @@
         <v>6863</v>
       </c>
       <c r="B6863">
-        <v>887.5539177443378</v>
+        <v>887.5539177443377</v>
       </c>
     </row>
     <row r="6864" spans="1:2">
@@ -55423,7 +55423,7 @@
         <v>6885</v>
       </c>
       <c r="B6885">
-        <v>829.9508050954504</v>
+        <v>829.9508050954503</v>
       </c>
     </row>
     <row r="6886" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>697.151525346835</v>
+        <v>697.1515253468349</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55591,7 +55591,7 @@
         <v>6906</v>
       </c>
       <c r="B6906">
-        <v>467.0790371561325</v>
+        <v>467.0790371561324</v>
       </c>
     </row>
     <row r="6907" spans="1:2">
@@ -55599,7 +55599,7 @@
         <v>6907</v>
       </c>
       <c r="B6907">
-        <v>510.8023054140186</v>
+        <v>510.8023054140185</v>
       </c>
     </row>
     <row r="6908" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>593.9875890276548</v>
+        <v>593.9875890276547</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55623,7 +55623,7 @@
         <v>6910</v>
       </c>
       <c r="B6910">
-        <v>642.7340948881964</v>
+        <v>642.7340948881963</v>
       </c>
     </row>
     <row r="6911" spans="1:2">
@@ -55655,7 +55655,7 @@
         <v>6914</v>
       </c>
       <c r="B6914">
-        <v>961.141124841815</v>
+        <v>961.1411248418148</v>
       </c>
     </row>
     <row r="6915" spans="1:2">
@@ -55743,7 +55743,7 @@
         <v>6925</v>
       </c>
       <c r="B6925">
-        <v>516.7223403949778</v>
+        <v>516.7223403949777</v>
       </c>
     </row>
     <row r="6926" spans="1:2">
@@ -55759,7 +55759,7 @@
         <v>6927</v>
       </c>
       <c r="B6927">
-        <v>365.2983961394339</v>
+        <v>365.2983961394338</v>
       </c>
     </row>
     <row r="6928" spans="1:2">
@@ -55775,7 +55775,7 @@
         <v>6929</v>
       </c>
       <c r="B6929">
-        <v>346.5066811404684</v>
+        <v>346.5066811404683</v>
       </c>
     </row>
     <row r="6930" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>700.9028346417002</v>
+        <v>700.9028346417001</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -55967,7 +55967,7 @@
         <v>6953</v>
       </c>
       <c r="B6953">
-        <v>362.9684813820762</v>
+        <v>362.9684813820761</v>
       </c>
     </row>
     <row r="6954" spans="1:2">
@@ -55999,7 +55999,7 @@
         <v>6957</v>
       </c>
       <c r="B6957">
-        <v>531.1150591036364</v>
+        <v>531.1150591036363</v>
       </c>
     </row>
     <row r="6958" spans="1:2">
@@ -56015,7 +56015,7 @@
         <v>6959</v>
       </c>
       <c r="B6959">
-        <v>623.3533071015216</v>
+        <v>623.3533071015215</v>
       </c>
     </row>
     <row r="6960" spans="1:2">
@@ -56039,7 +56039,7 @@
         <v>6962</v>
       </c>
       <c r="B6962">
-        <v>745.5404845402097</v>
+        <v>745.5404845402096</v>
       </c>
     </row>
     <row r="6963" spans="1:2">
@@ -56143,7 +56143,7 @@
         <v>6975</v>
       </c>
       <c r="B6975">
-        <v>273.6583061314565</v>
+        <v>273.6583061314564</v>
       </c>
     </row>
     <row r="6976" spans="1:2">
@@ -56151,7 +56151,7 @@
         <v>6976</v>
       </c>
       <c r="B6976">
-        <v>254.0175643334891</v>
+        <v>254.017564333489</v>
       </c>
     </row>
     <row r="6977" spans="1:2">
@@ -56175,7 +56175,7 @@
         <v>6979</v>
       </c>
       <c r="B6979">
-        <v>366.6904835730753</v>
+        <v>366.6904835730752</v>
       </c>
     </row>
     <row r="6980" spans="1:2">
@@ -56191,7 +56191,7 @@
         <v>6981</v>
       </c>
       <c r="B6981">
-        <v>438.2555005037892</v>
+        <v>438.2555005037891</v>
       </c>
     </row>
     <row r="6982" spans="1:2">
@@ -56223,7 +56223,7 @@
         <v>6985</v>
       </c>
       <c r="B6985">
-        <v>613.0401372510289</v>
+        <v>613.0401372510288</v>
       </c>
     </row>
     <row r="6986" spans="1:2">
@@ -56263,7 +56263,7 @@
         <v>6990</v>
       </c>
       <c r="B6990">
-        <v>664.4066981972029</v>
+        <v>664.4066981972028</v>
       </c>
     </row>
     <row r="6991" spans="1:2">
@@ -56423,7 +56423,7 @@
         <v>7010</v>
       </c>
       <c r="B7010">
-        <v>685.2000883902253</v>
+        <v>685.2000883902252</v>
       </c>
     </row>
     <row r="7011" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>761.6154310107845</v>
+        <v>761.6154310107844</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>610.6721232586452</v>
+        <v>610.6721232586451</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -56511,7 +56511,7 @@
         <v>7021</v>
       </c>
       <c r="B7021">
-        <v>446.7604220457414</v>
+        <v>446.7604220457413</v>
       </c>
     </row>
     <row r="7022" spans="1:2">
@@ -56615,7 +56615,7 @@
         <v>7034</v>
       </c>
       <c r="B7034">
-        <v>712.3794965156785</v>
+        <v>712.3794965156784</v>
       </c>
     </row>
     <row r="7035" spans="1:2">
@@ -56671,7 +56671,7 @@
         <v>7041</v>
       </c>
       <c r="B7041">
-        <v>683.1896210650085</v>
+        <v>683.1896210650084</v>
       </c>
     </row>
     <row r="7042" spans="1:2">
@@ -56687,7 +56687,7 @@
         <v>7043</v>
       </c>
       <c r="B7043">
-        <v>574.190640366081</v>
+        <v>574.1906403660809</v>
       </c>
     </row>
     <row r="7044" spans="1:2">
@@ -56695,7 +56695,7 @@
         <v>7044</v>
       </c>
       <c r="B7044">
-        <v>527.7212964759381</v>
+        <v>527.7212964759379</v>
       </c>
     </row>
     <row r="7045" spans="1:2">
@@ -56751,7 +56751,7 @@
         <v>7051</v>
       </c>
       <c r="B7051">
-        <v>500.6737703178825</v>
+        <v>500.6737703178824</v>
       </c>
     </row>
     <row r="7052" spans="1:2">
@@ -56855,7 +56855,7 @@
         <v>7064</v>
       </c>
       <c r="B7064">
-        <v>599.5090473960346</v>
+        <v>599.5090473960345</v>
       </c>
     </row>
     <row r="7065" spans="1:2">
@@ -56975,7 +56975,7 @@
         <v>7079</v>
       </c>
       <c r="B7079">
-        <v>472.6151490764453</v>
+        <v>472.6151490764452</v>
       </c>
     </row>
     <row r="7080" spans="1:2">
@@ -57023,7 +57023,7 @@
         <v>7085</v>
       </c>
       <c r="B7085">
-        <v>608.3070399766482</v>
+        <v>608.3070399766481</v>
       </c>
     </row>
     <row r="7086" spans="1:2">
@@ -57055,7 +57055,7 @@
         <v>7089</v>
       </c>
       <c r="B7089">
-        <v>511.8514997324262</v>
+        <v>511.8514997324261</v>
       </c>
     </row>
     <row r="7090" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>255.491418586917</v>
+        <v>255.4914185869169</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57159,7 +57159,7 @@
         <v>7102</v>
       </c>
       <c r="B7102">
-        <v>377.6308254463033</v>
+        <v>377.6308254463032</v>
       </c>
     </row>
     <row r="7103" spans="1:2">
@@ -57223,7 +57223,7 @@
         <v>7110</v>
       </c>
       <c r="B7110">
-        <v>516.6930332911116</v>
+        <v>516.6930332911115</v>
       </c>
     </row>
     <row r="7111" spans="1:2">
@@ -57319,7 +57319,7 @@
         <v>7122</v>
       </c>
       <c r="B7122">
-        <v>183.290437502308</v>
+        <v>183.2904375023079</v>
       </c>
     </row>
     <row r="7123" spans="1:2">
@@ -57343,7 +57343,7 @@
         <v>7125</v>
       </c>
       <c r="B7125">
-        <v>312.9500472137444</v>
+        <v>312.9500472137443</v>
       </c>
     </row>
     <row r="7126" spans="1:2">
@@ -57391,7 +57391,7 @@
         <v>7131</v>
       </c>
       <c r="B7131">
-        <v>609.8104944049809</v>
+        <v>609.8104944049808</v>
       </c>
     </row>
     <row r="7132" spans="1:2">
@@ -57399,7 +57399,7 @@
         <v>7132</v>
       </c>
       <c r="B7132">
-        <v>625.7359746458384</v>
+        <v>625.7359746458383</v>
       </c>
     </row>
     <row r="7133" spans="1:2">
@@ -57407,7 +57407,7 @@
         <v>7133</v>
       </c>
       <c r="B7133">
-        <v>624.4845613107544</v>
+        <v>624.4845613107543</v>
       </c>
     </row>
     <row r="7134" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>479.4026743318421</v>
+        <v>479.402674331842</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>264.672455015061</v>
+        <v>264.6724550150609</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57567,7 +57567,7 @@
         <v>7153</v>
       </c>
       <c r="B7153">
-        <v>767.078275171432</v>
+        <v>767.0782751714319</v>
       </c>
     </row>
     <row r="7154" spans="1:2">
@@ -57575,7 +57575,7 @@
         <v>7154</v>
       </c>
       <c r="B7154">
-        <v>976.3984031145246</v>
+        <v>976.3984031145244</v>
       </c>
     </row>
     <row r="7155" spans="1:2">
@@ -57599,7 +57599,7 @@
         <v>7157</v>
       </c>
       <c r="B7157">
-        <v>1784.213552659884</v>
+        <v>1784.213552659883</v>
       </c>
     </row>
     <row r="7158" spans="1:2">
@@ -57743,7 +57743,7 @@
         <v>7175</v>
       </c>
       <c r="B7175">
-        <v>863.5308847052673</v>
+        <v>863.5308847052672</v>
       </c>
     </row>
     <row r="7176" spans="1:2">
@@ -57775,7 +57775,7 @@
         <v>7179</v>
       </c>
       <c r="B7179">
-        <v>1909.099914364643</v>
+        <v>1909.099914364642</v>
       </c>
     </row>
     <row r="7180" spans="1:2">
@@ -57919,7 +57919,7 @@
         <v>7197</v>
       </c>
       <c r="B7197">
-        <v>723.1996792630554</v>
+        <v>723.1996792630553</v>
       </c>
     </row>
     <row r="7198" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>920.9845311244376</v>
+        <v>920.9845311244374</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -57975,7 +57975,7 @@
         <v>7204</v>
       </c>
       <c r="B7204">
-        <v>1079.647330034917</v>
+        <v>1079.647330034916</v>
       </c>
     </row>
     <row r="7205" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>647.347033036726</v>
+        <v>647.3470330367259</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58127,7 +58127,7 @@
         <v>7223</v>
       </c>
       <c r="B7223">
-        <v>783.4814612053075</v>
+        <v>783.4814612053074</v>
       </c>
     </row>
     <row r="7224" spans="1:2">
@@ -58143,7 +58143,7 @@
         <v>7225</v>
       </c>
       <c r="B7225">
-        <v>821.3931307665391</v>
+        <v>821.393130766539</v>
       </c>
     </row>
     <row r="7226" spans="1:2">
@@ -58223,7 +58223,7 @@
         <v>7235</v>
       </c>
       <c r="B7235">
-        <v>725.2834143479375</v>
+        <v>725.2834143479374</v>
       </c>
     </row>
     <row r="7236" spans="1:2">
@@ -58239,7 +58239,7 @@
         <v>7237</v>
       </c>
       <c r="B7237">
-        <v>583.4487544773929</v>
+        <v>583.4487544773928</v>
       </c>
     </row>
     <row r="7238" spans="1:2">
@@ -58303,7 +58303,7 @@
         <v>7245</v>
       </c>
       <c r="B7245">
-        <v>621.7912384654567</v>
+        <v>621.7912384654566</v>
       </c>
     </row>
     <row r="7246" spans="1:2">
@@ -58319,7 +58319,7 @@
         <v>7247</v>
       </c>
       <c r="B7247">
-        <v>732.9032613531325</v>
+        <v>732.9032613531324</v>
       </c>
     </row>
     <row r="7248" spans="1:2">
@@ -58335,7 +58335,7 @@
         <v>7249</v>
       </c>
       <c r="B7249">
-        <v>995.213563796583</v>
+        <v>995.2135637965828</v>
       </c>
     </row>
     <row r="7250" spans="1:2">
@@ -58479,7 +58479,7 @@
         <v>7267</v>
       </c>
       <c r="B7267">
-        <v>686.4485710149227</v>
+        <v>686.4485710149225</v>
       </c>
     </row>
     <row r="7268" spans="1:2">
@@ -58503,7 +58503,7 @@
         <v>7270</v>
       </c>
       <c r="B7270">
-        <v>885.0071304183707</v>
+        <v>885.0071304183706</v>
       </c>
     </row>
     <row r="7271" spans="1:2">
@@ -58511,7 +58511,7 @@
         <v>7271</v>
       </c>
       <c r="B7271">
-        <v>998.6805941839468</v>
+        <v>998.6805941839466</v>
       </c>
     </row>
     <row r="7272" spans="1:2">
@@ -58663,7 +58663,7 @@
         <v>7290</v>
       </c>
       <c r="B7290">
-        <v>551.4776348698267</v>
+        <v>551.4776348698266</v>
       </c>
     </row>
     <row r="7291" spans="1:2">
@@ -58687,7 +58687,7 @@
         <v>7293</v>
       </c>
       <c r="B7293">
-        <v>661.0862033291698</v>
+        <v>661.0862033291697</v>
       </c>
     </row>
     <row r="7294" spans="1:2">
@@ -58695,7 +58695,7 @@
         <v>7294</v>
       </c>
       <c r="B7294">
-        <v>702.4062890700329</v>
+        <v>702.4062890700328</v>
       </c>
     </row>
     <row r="7295" spans="1:2">
@@ -58711,7 +58711,7 @@
         <v>7296</v>
       </c>
       <c r="B7296">
-        <v>809.8256168705758</v>
+        <v>809.8256168705757</v>
       </c>
     </row>
     <row r="7297" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>978.6462579810571</v>
+        <v>978.646257981057</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58807,7 +58807,7 @@
         <v>7308</v>
       </c>
       <c r="B7308">
-        <v>735.9717151279168</v>
+        <v>735.9717151279167</v>
       </c>
     </row>
     <row r="7309" spans="1:2">
@@ -58863,7 +58863,7 @@
         <v>7315</v>
       </c>
       <c r="B7315">
-        <v>689.5463318935731</v>
+        <v>689.546331893573</v>
       </c>
     </row>
     <row r="7316" spans="1:2">
@@ -58943,7 +58943,7 @@
         <v>7325</v>
       </c>
       <c r="B7325">
-        <v>1953.485523169904</v>
+        <v>1953.485523169903</v>
       </c>
     </row>
     <row r="7326" spans="1:2">
@@ -58967,7 +58967,7 @@
         <v>7328</v>
       </c>
       <c r="B7328">
-        <v>1957.532834213817</v>
+        <v>1957.532834213816</v>
       </c>
     </row>
     <row r="7329" spans="1:2">
@@ -59159,7 +59159,7 @@
         <v>7352</v>
       </c>
       <c r="B7352">
-        <v>1992.478624863796</v>
+        <v>1992.478624863795</v>
       </c>
     </row>
     <row r="7353" spans="1:2">
@@ -59199,7 +59199,7 @@
         <v>7357</v>
       </c>
       <c r="B7357">
-        <v>1003.815198781294</v>
+        <v>1003.815198781293</v>
       </c>
     </row>
     <row r="7358" spans="1:2">
@@ -59231,7 +59231,7 @@
         <v>7361</v>
       </c>
       <c r="B7361">
-        <v>772.825398239581</v>
+        <v>772.8253982395809</v>
       </c>
     </row>
     <row r="7362" spans="1:2">
@@ -59399,7 +59399,7 @@
         <v>7382</v>
       </c>
       <c r="B7382">
-        <v>726.6813632023521</v>
+        <v>726.681363202352</v>
       </c>
     </row>
     <row r="7383" spans="1:2">
@@ -59415,7 +59415,7 @@
         <v>7384</v>
       </c>
       <c r="B7384">
-        <v>678.4418702386947</v>
+        <v>678.4418702386946</v>
       </c>
     </row>
     <row r="7385" spans="1:2">
@@ -59463,7 +59463,7 @@
         <v>7390</v>
       </c>
       <c r="B7390">
-        <v>830.8446717633675</v>
+        <v>830.8446717633674</v>
       </c>
     </row>
     <row r="7391" spans="1:2">
@@ -59535,7 +59535,7 @@
         <v>7399</v>
       </c>
       <c r="B7399">
-        <v>1927.493052751029</v>
+        <v>1927.493052751028</v>
       </c>
     </row>
     <row r="7400" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>1006.285787637209</v>
+        <v>1006.285787637208</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>586.8718242089574</v>
+        <v>586.8718242089573</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59711,7 +59711,7 @@
         <v>7421</v>
       </c>
       <c r="B7421">
-        <v>874.784812589863</v>
+        <v>874.7848125898629</v>
       </c>
     </row>
     <row r="7422" spans="1:2">
@@ -59719,7 +59719,7 @@
         <v>7422</v>
       </c>
       <c r="B7422">
-        <v>895.0418827821352</v>
+        <v>895.0418827821351</v>
       </c>
     </row>
     <row r="7423" spans="1:2">
@@ -59743,7 +59743,7 @@
         <v>7425</v>
       </c>
       <c r="B7425">
-        <v>809.7523491109105</v>
+        <v>809.7523491109104</v>
       </c>
     </row>
     <row r="7426" spans="1:2">
@@ -59807,7 +59807,7 @@
         <v>7433</v>
       </c>
       <c r="B7433">
-        <v>349.7216704345834</v>
+        <v>349.7216704345833</v>
       </c>
     </row>
     <row r="7434" spans="1:2">
@@ -60039,7 +60039,7 @@
         <v>7462</v>
       </c>
       <c r="B7462">
-        <v>530.936285770053</v>
+        <v>530.9362857700529</v>
       </c>
     </row>
     <row r="7463" spans="1:2">
@@ -60087,7 +60087,7 @@
         <v>7468</v>
       </c>
       <c r="B7468">
-        <v>1089.526754748191</v>
+        <v>1089.52675474819</v>
       </c>
     </row>
     <row r="7469" spans="1:2">
@@ -60103,7 +60103,7 @@
         <v>7470</v>
       </c>
       <c r="B7470">
-        <v>1219.023123891093</v>
+        <v>1219.023123891092</v>
       </c>
     </row>
     <row r="7471" spans="1:2">
@@ -60167,7 +60167,7 @@
         <v>7478</v>
       </c>
       <c r="B7478">
-        <v>709.9968289713618</v>
+        <v>709.9968289713617</v>
       </c>
     </row>
     <row r="7479" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>637.5086382688646</v>
+        <v>637.5086382688645</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60207,7 +60207,7 @@
         <v>7483</v>
       </c>
       <c r="B7483">
-        <v>684.3794894819736</v>
+        <v>684.3794894819735</v>
       </c>
     </row>
     <row r="7484" spans="1:2">
@@ -60271,7 +60271,7 @@
         <v>7491</v>
       </c>
       <c r="B7491">
-        <v>1808.717222202359</v>
+        <v>1808.717222202358</v>
       </c>
     </row>
     <row r="7492" spans="1:2">
@@ -60559,7 +60559,7 @@
         <v>7527</v>
       </c>
       <c r="B7527">
-        <v>1553.030325232655</v>
+        <v>1553.030325232654</v>
       </c>
     </row>
     <row r="7528" spans="1:2">
@@ -60887,7 +60887,7 @@
         <v>7568</v>
       </c>
       <c r="B7568">
-        <v>2006.648609583072</v>
+        <v>2006.648609583071</v>
       </c>
     </row>
     <row r="7569" spans="1:2">
@@ -60895,7 +60895,7 @@
         <v>7569</v>
       </c>
       <c r="B7569">
-        <v>2005.728366521675</v>
+        <v>2005.728366521674</v>
       </c>
     </row>
     <row r="7570" spans="1:2">
@@ -60935,7 +60935,7 @@
         <v>7574</v>
       </c>
       <c r="B7574">
-        <v>1084.409734413164</v>
+        <v>1084.409734413163</v>
       </c>
     </row>
     <row r="7575" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>995.4069906820996</v>
+        <v>995.4069906820994</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61055,7 +61055,7 @@
         <v>7589</v>
       </c>
       <c r="B7589">
-        <v>1964.378973676946</v>
+        <v>1964.378973676945</v>
       </c>
     </row>
     <row r="7590" spans="1:2">
@@ -61143,7 +61143,7 @@
         <v>7600</v>
       </c>
       <c r="B7600">
-        <v>866.596407769665</v>
+        <v>866.5964077696649</v>
       </c>
     </row>
     <row r="7601" spans="1:2">
@@ -61303,7 +61303,7 @@
         <v>7620</v>
       </c>
       <c r="B7620">
-        <v>1964.021427009779</v>
+        <v>1964.021427009778</v>
       </c>
     </row>
     <row r="7621" spans="1:2">
@@ -61551,7 +61551,7 @@
         <v>7651</v>
       </c>
       <c r="B7651">
-        <v>757.3746930813548</v>
+        <v>757.3746930813547</v>
       </c>
     </row>
     <row r="7652" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>810.1978170896757</v>
+        <v>810.1978170896756</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61735,7 +61735,7 @@
         <v>7674</v>
       </c>
       <c r="B7674">
-        <v>765.3813938575828</v>
+        <v>765.3813938575827</v>
       </c>
     </row>
     <row r="7675" spans="1:2">
@@ -61743,7 +61743,7 @@
         <v>7675</v>
       </c>
       <c r="B7675">
-        <v>781.1749921310427</v>
+        <v>781.1749921310426</v>
       </c>
     </row>
     <row r="7676" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>958.9841219972676</v>
+        <v>958.9841219972674</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -61975,7 +61975,7 @@
         <v>7704</v>
       </c>
       <c r="B7704">
-        <v>1205.747005839734</v>
+        <v>1205.747005839733</v>
       </c>
     </row>
     <row r="7705" spans="1:2">
@@ -62015,7 +62015,7 @@
         <v>7709</v>
       </c>
       <c r="B7709">
-        <v>1414.132237169497</v>
+        <v>1414.132237169496</v>
       </c>
     </row>
     <row r="7710" spans="1:2">
@@ -62071,7 +62071,7 @@
         <v>7716</v>
       </c>
       <c r="B7716">
-        <v>896.8413389595158</v>
+        <v>896.8413389595157</v>
       </c>
     </row>
     <row r="7717" spans="1:2">
@@ -62087,7 +62087,7 @@
         <v>7718</v>
       </c>
       <c r="B7718">
-        <v>778.5842441492764</v>
+        <v>778.5842441492763</v>
       </c>
     </row>
     <row r="7719" spans="1:2">
@@ -62351,7 +62351,7 @@
         <v>7751</v>
       </c>
       <c r="B7751">
-        <v>661.607869777987</v>
+        <v>661.6078697779869</v>
       </c>
     </row>
     <row r="7752" spans="1:2">
@@ -62439,7 +62439,7 @@
         <v>7762</v>
       </c>
       <c r="B7762">
-        <v>698.8337531087511</v>
+        <v>698.833753108751</v>
       </c>
     </row>
     <row r="7763" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>777.3181772622594</v>
+        <v>777.3181772622593</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62799,7 +62799,7 @@
         <v>7807</v>
       </c>
       <c r="B7807">
-        <v>1377.337168265565</v>
+        <v>1377.337168265564</v>
       </c>
     </row>
     <row r="7808" spans="1:2">
@@ -62847,7 +62847,7 @@
         <v>7813</v>
       </c>
       <c r="B7813">
-        <v>750.8392089192068</v>
+        <v>750.8392089192067</v>
       </c>
     </row>
     <row r="7814" spans="1:2">
@@ -62863,7 +62863,7 @@
         <v>7815</v>
       </c>
       <c r="B7815">
-        <v>606.8915068599139</v>
+        <v>606.8915068599138</v>
       </c>
     </row>
     <row r="7816" spans="1:2">
@@ -62871,7 +62871,7 @@
         <v>7816</v>
       </c>
       <c r="B7816">
-        <v>578.7303107549452</v>
+        <v>578.7303107549451</v>
       </c>
     </row>
     <row r="7817" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>458.2810445755189</v>
+        <v>458.2810445755188</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63087,7 +63087,7 @@
         <v>7843</v>
       </c>
       <c r="B7843">
-        <v>372.6662020513801</v>
+        <v>372.66620205138</v>
       </c>
     </row>
     <row r="7844" spans="1:2">
@@ -63175,7 +63175,7 @@
         <v>7854</v>
       </c>
       <c r="B7854">
-        <v>693.8017233749358</v>
+        <v>693.8017233749357</v>
       </c>
     </row>
     <row r="7855" spans="1:2">
@@ -63191,7 +63191,7 @@
         <v>7856</v>
       </c>
       <c r="B7856">
-        <v>698.5494742012496</v>
+        <v>698.5494742012495</v>
       </c>
     </row>
     <row r="7857" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>503.8946210327707</v>
+        <v>503.8946210327706</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63271,7 +63271,7 @@
         <v>7866</v>
       </c>
       <c r="B7866">
-        <v>489.2791683347294</v>
+        <v>489.2791683347293</v>
       </c>
     </row>
     <row r="7867" spans="1:2">
@@ -63327,7 +63327,7 @@
         <v>7873</v>
       </c>
       <c r="B7873">
-        <v>640.51554712553</v>
+        <v>640.5155471255299</v>
       </c>
     </row>
     <row r="7874" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>714.9995516013109</v>
+        <v>714.9995516013108</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63391,7 +63391,7 @@
         <v>7881</v>
       </c>
       <c r="B7881">
-        <v>711.0548154209292</v>
+        <v>711.0548154209291</v>
       </c>
     </row>
     <row r="7882" spans="1:2">
@@ -63487,7 +63487,7 @@
         <v>7893</v>
       </c>
       <c r="B7893">
-        <v>636.8257827487837</v>
+        <v>636.8257827487836</v>
       </c>
     </row>
     <row r="7894" spans="1:2">
@@ -63511,7 +63511,7 @@
         <v>7896</v>
       </c>
       <c r="B7896">
-        <v>818.134180816625</v>
+        <v>818.1341808166248</v>
       </c>
     </row>
     <row r="7897" spans="1:2">
@@ -63639,7 +63639,7 @@
         <v>7912</v>
       </c>
       <c r="B7912">
-        <v>608.4858133102316</v>
+        <v>608.4858133102315</v>
       </c>
     </row>
     <row r="7913" spans="1:2">
@@ -63671,7 +63671,7 @@
         <v>7916</v>
       </c>
       <c r="B7916">
-        <v>672.3401312137655</v>
+        <v>672.3401312137654</v>
       </c>
     </row>
     <row r="7917" spans="1:2">
@@ -63679,7 +63679,7 @@
         <v>7917</v>
       </c>
       <c r="B7917">
-        <v>700.5599415264664</v>
+        <v>700.5599415264663</v>
       </c>
     </row>
     <row r="7918" spans="1:2">
@@ -63703,7 +63703,7 @@
         <v>7920</v>
       </c>
       <c r="B7920">
-        <v>874.230908326793</v>
+        <v>874.2309083267929</v>
       </c>
     </row>
     <row r="7921" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>759.7720141776047</v>
+        <v>759.7720141776045</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -63815,7 +63815,7 @@
         <v>7934</v>
       </c>
       <c r="B7934">
-        <v>631.9139121408195</v>
+        <v>631.9139121408194</v>
       </c>
     </row>
     <row r="7935" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>544.0043233839624</v>
+        <v>544.0043233839623</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -64047,7 +64047,7 @@
         <v>7963</v>
       </c>
       <c r="B7963">
-        <v>368.155838766382</v>
+        <v>368.1558387663819</v>
       </c>
     </row>
     <row r="7964" spans="1:2">
@@ -64095,7 +64095,7 @@
         <v>7969</v>
       </c>
       <c r="B7969">
-        <v>615.2733385656284</v>
+        <v>615.2733385656283</v>
       </c>
     </row>
     <row r="7970" spans="1:2">
@@ -64111,7 +64111,7 @@
         <v>7971</v>
       </c>
       <c r="B7971">
-        <v>691.2285596554892</v>
+        <v>691.2285596554891</v>
       </c>
     </row>
     <row r="7972" spans="1:2">
@@ -64135,7 +64135,7 @@
         <v>7974</v>
       </c>
       <c r="B7974">
-        <v>717.7075279985418</v>
+        <v>717.7075279985417</v>
       </c>
     </row>
     <row r="7975" spans="1:2">
@@ -64175,7 +64175,7 @@
         <v>7979</v>
       </c>
       <c r="B7979">
-        <v>547.7263255749615</v>
+        <v>547.7263255749614</v>
       </c>
     </row>
     <row r="7980" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>492.4560583938184</v>
+        <v>492.4560583938183</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64279,7 +64279,7 @@
         <v>7992</v>
       </c>
       <c r="B7992">
-        <v>646.1864717236271</v>
+        <v>646.1864717236269</v>
       </c>
     </row>
     <row r="7993" spans="1:2">
@@ -64391,7 +64391,7 @@
         <v>8006</v>
       </c>
       <c r="B8006">
-        <v>717.1125937900592</v>
+        <v>717.1125937900591</v>
       </c>
     </row>
     <row r="8007" spans="1:2">
@@ -64431,7 +64431,7 @@
         <v>8011</v>
       </c>
       <c r="B8011">
-        <v>675.9566278308465</v>
+        <v>675.9566278308464</v>
       </c>
     </row>
     <row r="8012" spans="1:2">
@@ -64447,7 +64447,7 @@
         <v>8013</v>
       </c>
       <c r="B8013">
-        <v>757.7029326446556</v>
+        <v>757.7029326446554</v>
       </c>
     </row>
     <row r="8014" spans="1:2">
@@ -64535,7 +64535,7 @@
         <v>8024</v>
       </c>
       <c r="B8024">
-        <v>1987.215069009438</v>
+        <v>1987.215069009437</v>
       </c>
     </row>
     <row r="8025" spans="1:2">
@@ -64543,7 +64543,7 @@
         <v>8025</v>
       </c>
       <c r="B8025">
-        <v>1984.5305382953</v>
+        <v>1984.530538295299</v>
       </c>
     </row>
     <row r="8026" spans="1:2">
@@ -64575,7 +64575,7 @@
         <v>8029</v>
       </c>
       <c r="B8029">
-        <v>1338.15650110693</v>
+        <v>1338.156501106929</v>
       </c>
     </row>
     <row r="8030" spans="1:2">
@@ -64711,7 +64711,7 @@
         <v>8046</v>
       </c>
       <c r="B8046">
-        <v>2026.331260539568</v>
+        <v>2026.331260539567</v>
       </c>
     </row>
     <row r="8047" spans="1:2">
@@ -64743,7 +64743,7 @@
         <v>8050</v>
       </c>
       <c r="B8050">
-        <v>2018.409550364552</v>
+        <v>2018.409550364551</v>
       </c>
     </row>
     <row r="8051" spans="1:2">
@@ -64999,7 +64999,7 @@
         <v>8082</v>
       </c>
       <c r="B8082">
-        <v>786.517677165839</v>
+        <v>786.5176771658389</v>
       </c>
     </row>
     <row r="8083" spans="1:2">
@@ -65023,7 +65023,7 @@
         <v>8085</v>
       </c>
       <c r="B8085">
-        <v>852.9920501550054</v>
+        <v>852.9920501550052</v>
       </c>
     </row>
     <row r="8086" spans="1:2">
@@ -65151,7 +65151,7 @@
         <v>8101</v>
       </c>
       <c r="B8101">
-        <v>857.3529472102862</v>
+        <v>857.3529472102861</v>
       </c>
     </row>
     <row r="8102" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>723.6304936898875</v>
+        <v>723.6304936898874</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65239,7 +65239,7 @@
         <v>8112</v>
       </c>
       <c r="B8112">
-        <v>933.0268201030322</v>
+        <v>933.026820103032</v>
       </c>
     </row>
     <row r="8113" spans="1:2">
@@ -65311,7 +65311,7 @@
         <v>8121</v>
       </c>
       <c r="B8121">
-        <v>1905.612369004573</v>
+        <v>1905.612369004572</v>
       </c>
     </row>
     <row r="8122" spans="1:2">
@@ -65511,7 +65511,7 @@
         <v>8146</v>
       </c>
       <c r="B8146">
-        <v>1981.910483209668</v>
+        <v>1981.910483209667</v>
       </c>
     </row>
     <row r="8147" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>2002.574922145679</v>
+        <v>2002.574922145678</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>2015.19163036005</v>
+        <v>2015.191630360049</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>1977.449942001242</v>
+        <v>1977.449942001241</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>1978.968049981508</v>
+        <v>1978.968049981507</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66335,7 +66335,7 @@
         <v>8249</v>
       </c>
       <c r="B8249">
-        <v>1307.615568168031</v>
+        <v>1307.61556816803</v>
       </c>
     </row>
     <row r="8250" spans="1:2">
@@ -66399,7 +66399,7 @@
         <v>8257</v>
       </c>
       <c r="B8257">
-        <v>1951.13509343984</v>
+        <v>1951.135093439839</v>
       </c>
     </row>
     <row r="8258" spans="1:2">
@@ -66543,7 +66543,7 @@
         <v>8275</v>
       </c>
       <c r="B8275">
-        <v>1129.894359613405</v>
+        <v>1129.894359613404</v>
       </c>
     </row>
     <row r="8276" spans="1:2">
@@ -66607,7 +66607,7 @@
         <v>8283</v>
       </c>
       <c r="B8283">
-        <v>1979.647974791202</v>
+        <v>1979.647974791201</v>
       </c>
     </row>
     <row r="8284" spans="1:2">
@@ -66743,7 +66743,7 @@
         <v>8300</v>
       </c>
       <c r="B8300">
-        <v>1913.504772075723</v>
+        <v>1913.504772075722</v>
       </c>
     </row>
     <row r="8301" spans="1:2">
@@ -66903,7 +66903,7 @@
         <v>8320</v>
       </c>
       <c r="B8320">
-        <v>1643.26103661571</v>
+        <v>1643.261036615709</v>
       </c>
     </row>
     <row r="8321" spans="1:2">
@@ -67351,7 +67351,7 @@
         <v>8376</v>
       </c>
       <c r="B8376">
-        <v>1667.644547032334</v>
+        <v>1667.644547032333</v>
       </c>
     </row>
     <row r="8377" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>779.5220714729927</v>
+        <v>779.5220714729926</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>778.5109763896111</v>
+        <v>778.510976389611</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -67687,7 +67687,7 @@
         <v>8418</v>
       </c>
       <c r="B8418">
-        <v>792.0860269004046</v>
+        <v>792.0860269004045</v>
       </c>
     </row>
     <row r="8419" spans="1:2">
@@ -67695,7 +67695,7 @@
         <v>8419</v>
       </c>
       <c r="B8419">
-        <v>812.788565071442</v>
+        <v>812.7885650714419</v>
       </c>
     </row>
     <row r="8420" spans="1:2">
@@ -67823,7 +67823,7 @@
         <v>8435</v>
       </c>
       <c r="B8435">
-        <v>1117.154561562796</v>
+        <v>1117.154561562795</v>
       </c>
     </row>
     <row r="8436" spans="1:2">
@@ -68311,7 +68311,7 @@
         <v>8496</v>
       </c>
       <c r="B8496">
-        <v>1961.073132360846</v>
+        <v>1961.073132360845</v>
       </c>
     </row>
     <row r="8497" spans="1:2">
@@ -68343,7 +68343,7 @@
         <v>8500</v>
       </c>
       <c r="B8500">
-        <v>2006.648609583072</v>
+        <v>2006.648609583071</v>
       </c>
     </row>
     <row r="8501" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>2015.994645005982</v>
+        <v>2015.994645005981</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>1487.989069622543</v>
+        <v>1487.989069622542</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>1973.370393143076</v>
+        <v>1973.370393143075</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>1951.67141344059</v>
+        <v>1951.671413440589</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -69031,7 +69031,7 @@
         <v>8586</v>
       </c>
       <c r="B8586">
-        <v>1935.060146969265</v>
+        <v>1935.060146969264</v>
       </c>
     </row>
     <row r="8587" spans="1:2">
@@ -69055,7 +69055,7 @@
         <v>8589</v>
       </c>
       <c r="B8589">
-        <v>1953.778594208565</v>
+        <v>1953.778594208564</v>
       </c>
     </row>
     <row r="8590" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>1976.403678393221</v>
+        <v>1976.40367839322</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69143,7 +69143,7 @@
         <v>8600</v>
       </c>
       <c r="B8600">
-        <v>2042.880982092774</v>
+        <v>2042.880982092773</v>
       </c>
     </row>
     <row r="8601" spans="1:2">
@@ -69175,7 +69175,7 @@
         <v>8604</v>
       </c>
       <c r="B8604">
-        <v>2000.189323890976</v>
+        <v>2000.189323890975</v>
       </c>
     </row>
     <row r="8605" spans="1:2">
@@ -69255,7 +69255,7 @@
         <v>8614</v>
       </c>
       <c r="B8614">
-        <v>1963.279957281966</v>
+        <v>1963.279957281965</v>
       </c>
     </row>
     <row r="8615" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>2002.123592746141</v>
+        <v>2002.12359274614</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>1477.863465236793</v>
+        <v>1477.863465236792</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>1343.159223736879</v>
+        <v>1343.159223736878</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69511,7 +69511,7 @@
         <v>8646</v>
       </c>
       <c r="B8646">
-        <v>1970.685862428938</v>
+        <v>1970.685862428937</v>
       </c>
     </row>
     <row r="8647" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>855.3278263331363</v>
+        <v>855.3278263331362</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69599,7 +69599,7 @@
         <v>8657</v>
       </c>
       <c r="B8657">
-        <v>855.8787998858196</v>
+        <v>855.8787998858195</v>
       </c>
     </row>
     <row r="8658" spans="1:2">
@@ -69639,7 +69639,7 @@
         <v>8662</v>
       </c>
       <c r="B8662">
-        <v>1079.049465116048</v>
+        <v>1079.049465116047</v>
       </c>
     </row>
     <row r="8663" spans="1:2">
@@ -69711,7 +69711,7 @@
         <v>8671</v>
       </c>
       <c r="B8671">
-        <v>1954.165447979598</v>
+        <v>1954.165447979597</v>
       </c>
     </row>
     <row r="8672" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>772.825398239581</v>
+        <v>772.8253982395809</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69815,7 +69815,7 @@
         <v>8684</v>
       </c>
       <c r="B8684">
-        <v>750.5871678259581</v>
+        <v>750.587167825958</v>
       </c>
     </row>
     <row r="8685" spans="1:2">
@@ -69823,7 +69823,7 @@
         <v>8685</v>
       </c>
       <c r="B8685">
-        <v>770.7563167066319</v>
+        <v>770.7563167066318</v>
       </c>
     </row>
     <row r="8686" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>1378.497729578664</v>
+        <v>1378.497729578663</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -70343,7 +70343,7 @@
         <v>8750</v>
       </c>
       <c r="B8750">
-        <v>898.5997651914839</v>
+        <v>898.5997651914838</v>
       </c>
     </row>
     <row r="8751" spans="1:2">
@@ -70359,7 +70359,7 @@
         <v>8752</v>
       </c>
       <c r="B8752">
-        <v>760.9618825945697</v>
+        <v>760.9618825945696</v>
       </c>
     </row>
     <row r="8753" spans="1:2">
@@ -70367,7 +70367,7 @@
         <v>8753</v>
       </c>
       <c r="B8753">
-        <v>748.6528989707932</v>
+        <v>748.6528989707931</v>
       </c>
     </row>
     <row r="8754" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>1096.493053337171</v>
+        <v>1096.49305333717</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
